--- a/Collections.xlsx
+++ b/Collections.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>Пользователь</t>
   </si>
@@ -59,6 +59,1035 @@
     <t>Тег</t>
   </si>
   <si>
+    <t>коллекшн 1</t>
+  </si>
+  <si>
+    <t>Морозова Ксения Александровна</t>
+  </si>
+  <si>
+    <t>14.03.1995</t>
+  </si>
+  <si>
+    <t>01.01.1970 03:00:00</t>
+  </si>
+  <si>
+    <t>12:19</t>
+  </si>
+  <si>
+    <t>2023-06-12 11:13:38</t>
+  </si>
+  <si>
+    <t>Обещает</t>
+  </si>
+  <si>
+    <t>Василенко Екатерина Максимовна</t>
+  </si>
+  <si>
+    <t>26.01.1996</t>
+  </si>
+  <si>
+    <t>2023-05-31 20:44:03</t>
+  </si>
+  <si>
+    <t>Тавадян Инга Спартаки</t>
+  </si>
+  <si>
+    <t>30.10.1988</t>
+  </si>
+  <si>
+    <t>2023-05-31 14:58:04</t>
+  </si>
+  <si>
+    <t>Быкова Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>20.09.1983</t>
+  </si>
+  <si>
+    <t>2023-05-31 13:42:03</t>
+  </si>
+  <si>
+    <t>Усилова Галина Леонидовна</t>
+  </si>
+  <si>
+    <t>06.10.1983</t>
+  </si>
+  <si>
+    <t>2023-05-31 09:48:59</t>
+  </si>
+  <si>
+    <t>Голубева Ирина Николаевна</t>
+  </si>
+  <si>
+    <t>04.05.1981</t>
+  </si>
+  <si>
+    <t>2023-05-30 12:00:03</t>
+  </si>
+  <si>
+    <t>Медведева Елена Геннадьевна</t>
+  </si>
+  <si>
+    <t>11.03.1973</t>
+  </si>
+  <si>
+    <t>2023-05-29 11:20:03</t>
+  </si>
+  <si>
+    <t>Овчинникова Елена Васильевна</t>
+  </si>
+  <si>
+    <t>26.05.1971</t>
+  </si>
+  <si>
+    <t>2023-05-28 15:11:58</t>
+  </si>
+  <si>
+    <t>НЕ контактный</t>
+  </si>
+  <si>
+    <t>Митькова Кристина Вячеславовна</t>
+  </si>
+  <si>
+    <t>30.05.1988</t>
+  </si>
+  <si>
+    <t>2023-05-28 10:14:17</t>
+  </si>
+  <si>
+    <t>Миткина Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>03.03.1999</t>
+  </si>
+  <si>
+    <t>2023-05-27 21:52:03</t>
+  </si>
+  <si>
+    <t>Веревкина Юлия Александровна</t>
+  </si>
+  <si>
+    <t>13.03.1991</t>
+  </si>
+  <si>
+    <t>2023-05-27 17:32:42</t>
+  </si>
+  <si>
+    <t>Передана информация</t>
+  </si>
+  <si>
+    <t>Ефимова Майя Сергеевна</t>
+  </si>
+  <si>
+    <t>30.10.1998</t>
+  </si>
+  <si>
+    <t>2023-05-27 16:13:06</t>
+  </si>
+  <si>
+    <t>Комаров Роман Михайлович</t>
+  </si>
+  <si>
+    <t>21.01.1994</t>
+  </si>
+  <si>
+    <t>2023-05-27 11:04:03</t>
+  </si>
+  <si>
+    <t>Калачева Наталья Альбертовна</t>
+  </si>
+  <si>
+    <t>23.09.1971</t>
+  </si>
+  <si>
+    <t>2023-05-26 15:07:23</t>
+  </si>
+  <si>
+    <t>Оборин Алексей Валерьевич</t>
+  </si>
+  <si>
+    <t>08.12.1988</t>
+  </si>
+  <si>
+    <t>2023-05-26 14:26:03</t>
+  </si>
+  <si>
+    <t>Ишков Федор Сергеевич</t>
+  </si>
+  <si>
+    <t>28.08.1983</t>
+  </si>
+  <si>
+    <t>2023-05-26 09:08:05</t>
+  </si>
+  <si>
+    <t>Кондаурова Алёна Николаевна</t>
+  </si>
+  <si>
+    <t>17.01.1991</t>
+  </si>
+  <si>
+    <t>2023-05-26 05:15:21</t>
+  </si>
+  <si>
+    <t>Михеева Наталья Геннадиевна</t>
+  </si>
+  <si>
+    <t>27.08.1973</t>
+  </si>
+  <si>
+    <t>2023-05-25 22:52:54</t>
+  </si>
+  <si>
+    <t>Белоусова Роза Абдулмалиховна</t>
+  </si>
+  <si>
+    <t>13.09.1968</t>
+  </si>
+  <si>
+    <t>2023-05-25 16:04:03</t>
+  </si>
+  <si>
+    <t>Приходько Юлия Александровна</t>
+  </si>
+  <si>
+    <t>07.04.1978</t>
+  </si>
+  <si>
+    <t>2023-05-23 15:37:53</t>
+  </si>
+  <si>
+    <t>Банаева Бальжима Дмитриевна</t>
+  </si>
+  <si>
+    <t>13.03.1988</t>
+  </si>
+  <si>
+    <t>2023-05-22 19:32:03</t>
+  </si>
+  <si>
+    <t>Суд</t>
+  </si>
+  <si>
+    <t>Щербаков Никита Станиславович</t>
+  </si>
+  <si>
+    <t>05.12.1994</t>
+  </si>
+  <si>
+    <t>2023-05-22 18:40:03</t>
+  </si>
+  <si>
+    <t>Контактный</t>
+  </si>
+  <si>
+    <t>Сафронова Надежда Петровна</t>
+  </si>
+  <si>
+    <t>24.06.1964</t>
+  </si>
+  <si>
+    <t>2023-05-22 14:50:03</t>
+  </si>
+  <si>
+    <t>Осьмаков Андрей Сергеевич</t>
+  </si>
+  <si>
+    <t>19.08.1984</t>
+  </si>
+  <si>
+    <t>2023-05-22 11:04:04</t>
+  </si>
+  <si>
+    <t>Данков Дмитрий Валерьевич</t>
+  </si>
+  <si>
+    <t>11.03.1990</t>
+  </si>
+  <si>
+    <t>2023-05-22 10:02:52</t>
+  </si>
+  <si>
+    <t>Соловьева Ирина Михайловна</t>
+  </si>
+  <si>
+    <t>04.08.1985</t>
+  </si>
+  <si>
+    <t>2023-05-21 20:06:30</t>
+  </si>
+  <si>
+    <t>Шокурова Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>24.02.1985</t>
+  </si>
+  <si>
+    <t>2023-05-21 19:16:01</t>
+  </si>
+  <si>
+    <t>Никулин Максим Владимирович</t>
+  </si>
+  <si>
+    <t>07.09.1979</t>
+  </si>
+  <si>
+    <t>2023-05-21 14:51:01</t>
+  </si>
+  <si>
+    <t>Бикеев Владислав Васильевич</t>
+  </si>
+  <si>
+    <t>03.06.1996</t>
+  </si>
+  <si>
+    <t>2023-05-21 10:38:54</t>
+  </si>
+  <si>
+    <t>Анджукаева Ирина Викторовна</t>
+  </si>
+  <si>
+    <t>01.08.1976</t>
+  </si>
+  <si>
+    <t>2023-05-21 09:54:05</t>
+  </si>
+  <si>
+    <t>Самарин Сергей Игоревич</t>
+  </si>
+  <si>
+    <t>06.07.1972</t>
+  </si>
+  <si>
+    <t>2023-05-20 23:11:20</t>
+  </si>
+  <si>
+    <t>Митронова Дарья Андреевна</t>
+  </si>
+  <si>
+    <t>03.01.1989</t>
+  </si>
+  <si>
+    <t>2023-05-20 13:16:03</t>
+  </si>
+  <si>
+    <t>Стужук Александр Викторович</t>
+  </si>
+  <si>
+    <t>27.05.1997</t>
+  </si>
+  <si>
+    <t>2023-05-20 13:14:03</t>
+  </si>
+  <si>
+    <t>Чулкова Алена Васильевна</t>
+  </si>
+  <si>
+    <t>14.01.1997</t>
+  </si>
+  <si>
+    <t>2023-05-20 10:50:09</t>
+  </si>
+  <si>
+    <t>Давидюк Антон Михайлович</t>
+  </si>
+  <si>
+    <t>12.04.1983</t>
+  </si>
+  <si>
+    <t>2023-05-20 09:19:13</t>
+  </si>
+  <si>
+    <t>Голдаева Виктория Николаевна</t>
+  </si>
+  <si>
+    <t>19.08.1995</t>
+  </si>
+  <si>
+    <t>2023-05-19 15:50:04</t>
+  </si>
+  <si>
+    <t>Симанович Виктория Вадимовна</t>
+  </si>
+  <si>
+    <t>12.12.1995</t>
+  </si>
+  <si>
+    <t>2023-05-19 14:52:40</t>
+  </si>
+  <si>
+    <t>БОГДАНОВА ОЛЕСЯ ЕВГЕНЬЕВНА</t>
+  </si>
+  <si>
+    <t>21.03.1988</t>
+  </si>
+  <si>
+    <t>2023-05-19 11:02:04</t>
+  </si>
+  <si>
+    <t>Советова Людмила Сергеевна</t>
+  </si>
+  <si>
+    <t>09.02.1983</t>
+  </si>
+  <si>
+    <t>2023-05-19 10:30:04</t>
+  </si>
+  <si>
+    <t>Смирнов Александр Владимирович</t>
+  </si>
+  <si>
+    <t>23.12.1985</t>
+  </si>
+  <si>
+    <t>2023-05-18 18:07:43</t>
+  </si>
+  <si>
+    <t>Исаев Кирилл Александрович</t>
+  </si>
+  <si>
+    <t>18.09.1991</t>
+  </si>
+  <si>
+    <t>2023-05-18 16:28:03</t>
+  </si>
+  <si>
+    <t>Пестерева Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>26.09.1981</t>
+  </si>
+  <si>
+    <t>2023-05-18 14:56:03</t>
+  </si>
+  <si>
+    <t>Сухорукова Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>12.12.1993</t>
+  </si>
+  <si>
+    <t>2023-05-18 13:35:53</t>
+  </si>
+  <si>
+    <t>Гончаров Денис Геннадьевич</t>
+  </si>
+  <si>
+    <t>04.09.1989</t>
+  </si>
+  <si>
+    <t>2023-05-18 11:22:03</t>
+  </si>
+  <si>
+    <t>Степанова Наталья Анатольевна</t>
+  </si>
+  <si>
+    <t>28.08.1977</t>
+  </si>
+  <si>
+    <t>2023-05-17 22:40:20</t>
+  </si>
+  <si>
+    <t>Серова Мария Валерьевна</t>
+  </si>
+  <si>
+    <t>27.08.1991</t>
+  </si>
+  <si>
+    <t>2023-05-17 20:24:04</t>
+  </si>
+  <si>
+    <t>Климентьев Евгений Владиславович</t>
+  </si>
+  <si>
+    <t>13.12.1997</t>
+  </si>
+  <si>
+    <t>2023-05-17 17:30:03</t>
+  </si>
+  <si>
+    <t>Минкина Алина Альбертовна</t>
+  </si>
+  <si>
+    <t>09.10.1994</t>
+  </si>
+  <si>
+    <t>2023-05-17 16:42:03</t>
+  </si>
+  <si>
+    <t>Грибоедов Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>18.07.1999</t>
+  </si>
+  <si>
+    <t>2023-05-17 16:18:04</t>
+  </si>
+  <si>
+    <t>Иноземцева Евгения Юрьевна</t>
+  </si>
+  <si>
+    <t>10.09.1989</t>
+  </si>
+  <si>
+    <t>2023-05-17 11:00:03</t>
+  </si>
+  <si>
+    <t>Павлова Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>11.03.1970</t>
+  </si>
+  <si>
+    <t>2023-05-16 18:28:03</t>
+  </si>
+  <si>
+    <t>Мясоедов Никита Андреевич</t>
+  </si>
+  <si>
+    <t>09.05.1997</t>
+  </si>
+  <si>
+    <t>2023-05-16 16:34:03</t>
+  </si>
+  <si>
+    <t>Егорова Ирина Михайловна</t>
+  </si>
+  <si>
+    <t>25.10.1986</t>
+  </si>
+  <si>
+    <t>2023-05-16 10:12:04</t>
+  </si>
+  <si>
+    <t>Емельянова Дарья Олеговна</t>
+  </si>
+  <si>
+    <t>20.03.1993</t>
+  </si>
+  <si>
+    <t>2023-05-15 20:20:34</t>
+  </si>
+  <si>
+    <t>Швецова Наталья Михайловна</t>
+  </si>
+  <si>
+    <t>30.10.1982</t>
+  </si>
+  <si>
+    <t>2023-05-15 17:04:06</t>
+  </si>
+  <si>
+    <t>Воронцов Дмитрий Викторович</t>
+  </si>
+  <si>
+    <t>14.12.1996</t>
+  </si>
+  <si>
+    <t>2023-05-15 13:46:04</t>
+  </si>
+  <si>
+    <t>Левин Владимир Геннадьевич</t>
+  </si>
+  <si>
+    <t>15.01.1992</t>
+  </si>
+  <si>
+    <t>2023-05-15 11:52:03</t>
+  </si>
+  <si>
+    <t>Гольцева Валентина Михайловна</t>
+  </si>
+  <si>
+    <t>02.09.1983</t>
+  </si>
+  <si>
+    <t>2023-05-15 11:08:07</t>
+  </si>
+  <si>
+    <t>Мамаев Владислав Евгеньевич</t>
+  </si>
+  <si>
+    <t>11.03.1985</t>
+  </si>
+  <si>
+    <t>2023-05-14 18:38:03</t>
+  </si>
+  <si>
+    <t>Борисова Ирина Геннадьевна</t>
+  </si>
+  <si>
+    <t>22.03.1968</t>
+  </si>
+  <si>
+    <t>2023-05-14 17:04:49</t>
+  </si>
+  <si>
+    <t>Расторгуева Виктория Игоревна</t>
+  </si>
+  <si>
+    <t>13.10.1982</t>
+  </si>
+  <si>
+    <t>2023-05-14 15:22:06</t>
+  </si>
+  <si>
+    <t>Торгашова Ирина Викторовна</t>
+  </si>
+  <si>
+    <t>14.03.1978</t>
+  </si>
+  <si>
+    <t>2023-05-14 15:14:06</t>
+  </si>
+  <si>
+    <t>Каримов Ринат Файздрахманович</t>
+  </si>
+  <si>
+    <t>26.10.1964</t>
+  </si>
+  <si>
+    <t>2023-05-14 12:22:03</t>
+  </si>
+  <si>
+    <t>Васильева Анастасия Валерьевна</t>
+  </si>
+  <si>
+    <t>19.06.1996</t>
+  </si>
+  <si>
+    <t>2023-05-14 09:05:51</t>
+  </si>
+  <si>
+    <t>Долматова Анжела Владимировна</t>
+  </si>
+  <si>
+    <t>14.05.1979</t>
+  </si>
+  <si>
+    <t>2023-05-13 19:11:06</t>
+  </si>
+  <si>
+    <t>Чернышев Артем Александрович</t>
+  </si>
+  <si>
+    <t>31.01.1988</t>
+  </si>
+  <si>
+    <t>2023-05-13 11:28:04</t>
+  </si>
+  <si>
+    <t>Морозов Александр Олегович</t>
+  </si>
+  <si>
+    <t>03.04.1992</t>
+  </si>
+  <si>
+    <t>2023-05-13 09:30:03</t>
+  </si>
+  <si>
+    <t>Мачехина Ольга Савельевна</t>
+  </si>
+  <si>
+    <t>07.10.1989</t>
+  </si>
+  <si>
+    <t>2023-05-13 08:06:36</t>
+  </si>
+  <si>
+    <t>Кащеева Нина Александровна</t>
+  </si>
+  <si>
+    <t>13.06.1996</t>
+  </si>
+  <si>
+    <t>2023-05-12 17:58:08</t>
+  </si>
+  <si>
+    <t>Папкина Оксана Александровна</t>
+  </si>
+  <si>
+    <t>30.11.1990</t>
+  </si>
+  <si>
+    <t>2023-05-12 15:50:03</t>
+  </si>
+  <si>
+    <t>Филиппов Дмитрий Игоревич</t>
+  </si>
+  <si>
+    <t>28.09.1994</t>
+  </si>
+  <si>
+    <t>2023-05-12 12:14:09</t>
+  </si>
+  <si>
+    <t>Есина Олеся Юрьевна</t>
+  </si>
+  <si>
+    <t>12.06.1992</t>
+  </si>
+  <si>
+    <t>2023-05-12 11:26:03</t>
+  </si>
+  <si>
+    <t>Халилова Ильсеяр Рифатовна</t>
+  </si>
+  <si>
+    <t>04.10.1968</t>
+  </si>
+  <si>
+    <t>2023-05-11 16:24:07</t>
+  </si>
+  <si>
+    <t>Марчук Владислав Николаевич</t>
+  </si>
+  <si>
+    <t>05.09.1990</t>
+  </si>
+  <si>
+    <t>2023-05-11 13:36:03</t>
+  </si>
+  <si>
+    <t>Копылова Оксана Борисовна</t>
+  </si>
+  <si>
+    <t>23.07.1991</t>
+  </si>
+  <si>
+    <t>2023-05-11 11:14:03</t>
+  </si>
+  <si>
+    <t>Жирков Александр Андреевич</t>
+  </si>
+  <si>
+    <t>29.01.1995</t>
+  </si>
+  <si>
+    <t>2023-05-10 12:34:09</t>
+  </si>
+  <si>
+    <t>Суздальцев Алексей Андреевич</t>
+  </si>
+  <si>
+    <t>15.10.1996</t>
+  </si>
+  <si>
+    <t>2023-05-10 11:26:03</t>
+  </si>
+  <si>
+    <t>Тихонов Александр Валерьевич</t>
+  </si>
+  <si>
+    <t>18.05.1997</t>
+  </si>
+  <si>
+    <t>2023-05-10 11:09:14</t>
+  </si>
+  <si>
+    <t>Колчина Светлана Сергеевна</t>
+  </si>
+  <si>
+    <t>15.06.1991</t>
+  </si>
+  <si>
+    <t>2023-05-10 09:08:10</t>
+  </si>
+  <si>
+    <t>Валюшкин Валерий Иванович</t>
+  </si>
+  <si>
+    <t>23.05.1988</t>
+  </si>
+  <si>
+    <t>2023-05-08 17:52:04</t>
+  </si>
+  <si>
+    <t>Годлевская Анна Александровна</t>
+  </si>
+  <si>
+    <t>09.11.1996</t>
+  </si>
+  <si>
+    <t>2023-05-08 13:40:03</t>
+  </si>
+  <si>
+    <t>Моисеенко Дмитрий Николаевич</t>
+  </si>
+  <si>
+    <t>02.12.1993</t>
+  </si>
+  <si>
+    <t>2023-05-08 09:26:03</t>
+  </si>
+  <si>
+    <t>Володькина Екатерина Николаевна</t>
+  </si>
+  <si>
+    <t>12.11.1991</t>
+  </si>
+  <si>
+    <t>2023-05-07 16:12:04</t>
+  </si>
+  <si>
+    <t>Тамбовцев Михаил Евгеньевич</t>
+  </si>
+  <si>
+    <t>05.06.1993</t>
+  </si>
+  <si>
+    <t>2023-05-07 11:42:05</t>
+  </si>
+  <si>
+    <t>Кузнецова Алёна Игоревна</t>
+  </si>
+  <si>
+    <t>09.11.1992</t>
+  </si>
+  <si>
+    <t>2023-05-07 06:22:39</t>
+  </si>
+  <si>
+    <t>Сигаева Мария Владимировна</t>
+  </si>
+  <si>
+    <t>04.04.1988</t>
+  </si>
+  <si>
+    <t>2023-05-06 23:04:04</t>
+  </si>
+  <si>
+    <t>Терещенков Евгений Александрович</t>
+  </si>
+  <si>
+    <t>24.10.1994</t>
+  </si>
+  <si>
+    <t>2023-05-06 17:30:06</t>
+  </si>
+  <si>
+    <t>Салюкова Регина Рустямовна</t>
+  </si>
+  <si>
+    <t>05.10.1992</t>
+  </si>
+  <si>
+    <t>2023-05-06 12:38:06</t>
+  </si>
+  <si>
+    <t>Лаштабега Павел Александрович</t>
+  </si>
+  <si>
+    <t>17.09.1994</t>
+  </si>
+  <si>
+    <t>2023-05-06 09:44:03</t>
+  </si>
+  <si>
+    <t>Осташова Лидия Геннадьевна</t>
+  </si>
+  <si>
+    <t>10.05.1970</t>
+  </si>
+  <si>
+    <t>2023-05-06 06:08:52</t>
+  </si>
+  <si>
+    <t>Шапорев Евгений Александрович</t>
+  </si>
+  <si>
+    <t>10.11.1993</t>
+  </si>
+  <si>
+    <t>2023-05-05 15:22:03</t>
+  </si>
+  <si>
+    <t>Ефремов Евгений Юрьевич</t>
+  </si>
+  <si>
+    <t>15.06.1995</t>
+  </si>
+  <si>
+    <t>2023-05-05 12:48:04</t>
+  </si>
+  <si>
+    <t>Антонова Валерия Сергеевна</t>
+  </si>
+  <si>
+    <t>21.07.1988</t>
+  </si>
+  <si>
+    <t>2023-05-04 15:16:03</t>
+  </si>
+  <si>
+    <t>Пфайф Андрей Андреевич</t>
+  </si>
+  <si>
+    <t>26.11.1998</t>
+  </si>
+  <si>
+    <t>2023-05-04 14:48:03</t>
+  </si>
+  <si>
+    <t>Галямов Данис Ансарович</t>
+  </si>
+  <si>
+    <t>09.12.1988</t>
+  </si>
+  <si>
+    <t>2023-05-03 12:24:03</t>
+  </si>
+  <si>
+    <t>Андреева Наталия Ивановна</t>
+  </si>
+  <si>
+    <t>27.04.1994</t>
+  </si>
+  <si>
+    <t>2023-05-03 12:23:43</t>
+  </si>
+  <si>
+    <t>Лоскутова Регина Игоревна</t>
+  </si>
+  <si>
+    <t>26.06.1996</t>
+  </si>
+  <si>
+    <t>2023-05-03 11:04:03</t>
+  </si>
+  <si>
+    <t>Руденко Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t>28.08.1978</t>
+  </si>
+  <si>
+    <t>2023-05-02 16:48:08</t>
+  </si>
+  <si>
+    <t>Пушкарева Ирина Анатольевна</t>
+  </si>
+  <si>
+    <t>25.05.2002</t>
+  </si>
+  <si>
+    <t>2023-05-02 09:58:03</t>
+  </si>
+  <si>
+    <t>Кузьминых Валентина Валерьевна</t>
+  </si>
+  <si>
+    <t>22.04.1988</t>
+  </si>
+  <si>
+    <t>2023-05-02 09:38:03</t>
+  </si>
+  <si>
+    <t>Соколова Дарья Алексеева</t>
+  </si>
+  <si>
+    <t>17.08.1996</t>
+  </si>
+  <si>
+    <t>2023-05-02 09:22:03</t>
+  </si>
+  <si>
+    <t>смольянинова юлия сергеевна</t>
+  </si>
+  <si>
+    <t>07.06.1996</t>
+  </si>
+  <si>
+    <t>2023-05-01 15:40:04</t>
+  </si>
+  <si>
+    <t>Ожгибесова Ирина Семеновна</t>
+  </si>
+  <si>
+    <t>06.11.1987</t>
+  </si>
+  <si>
+    <t>2023-05-01 12:56:02</t>
+  </si>
+  <si>
+    <t>Евстафьева Елена Борисовна</t>
+  </si>
+  <si>
+    <t>09.09.1973</t>
+  </si>
+  <si>
+    <t>2023-05-01 11:22:17</t>
+  </si>
+  <si>
+    <t>Евстифеева Наталья Викторовна</t>
+  </si>
+  <si>
+    <t>24.02.1964</t>
+  </si>
+  <si>
+    <t>2023-05-01 09:42:03</t>
+  </si>
+  <si>
+    <t>Молотилин Андрей Игоревич</t>
+  </si>
+  <si>
+    <t>06.11.1989</t>
+  </si>
+  <si>
+    <t>2023-04-30 10:18:07</t>
+  </si>
+  <si>
+    <t>Агеев Сергей Валерьевич</t>
+  </si>
+  <si>
+    <t>18.05.1983</t>
+  </si>
+  <si>
+    <t>2023-04-29 14:12:05</t>
+  </si>
+  <si>
+    <t>Красин Максим Дмитриевич</t>
+  </si>
+  <si>
+    <t>30.03.1995</t>
+  </si>
+  <si>
+    <t>2023-04-29 14:02:04</t>
+  </si>
+  <si>
+    <t>Саутин Дмитрий Юрьевич</t>
+  </si>
+  <si>
+    <t>2023-04-29 11:30:08</t>
+  </si>
+  <si>
+    <t>Юдина Мария Александровна</t>
+  </si>
+  <si>
+    <t>19.03.1998</t>
+  </si>
+  <si>
+    <t>2023-04-29 10:28:08</t>
+  </si>
+  <si>
+    <t>Воронов Алексей Викторович</t>
+  </si>
+  <si>
+    <t>24.06.1986</t>
+  </si>
+  <si>
+    <t>2023-04-27 23:28:03</t>
+  </si>
+  <si>
+    <t>Малинин Дмитрий Вячеславович</t>
+  </si>
+  <si>
+    <t>25.10.1971</t>
+  </si>
+  <si>
+    <t>2023-04-27 09:38:36</t>
+  </si>
+  <si>
     <t>коллекшн 2</t>
   </si>
   <si>
@@ -68,1129 +1097,7 @@
     <t>22.10.1979</t>
   </si>
   <si>
-    <t>01.01.1970 03:00:00</t>
-  </si>
-  <si>
-    <t>10:44</t>
-  </si>
-  <si>
     <t>2023-04-11 10:42:32</t>
-  </si>
-  <si>
-    <t>Передана информация</t>
-  </si>
-  <si>
-    <t>коллекшн 1</t>
-  </si>
-  <si>
-    <t>Осташова Лидия Геннадьевна</t>
-  </si>
-  <si>
-    <t>10.05.1970</t>
-  </si>
-  <si>
-    <t>2023-05-06 06:08:52</t>
-  </si>
-  <si>
-    <t>Контактный</t>
-  </si>
-  <si>
-    <t>Сухорукова Анастасия Сергеевна</t>
-  </si>
-  <si>
-    <t>12.12.1993</t>
-  </si>
-  <si>
-    <t>2023-05-18 13:35:53</t>
-  </si>
-  <si>
-    <t>Обещает</t>
-  </si>
-  <si>
-    <t>Королева Анастасия Николаевна</t>
-  </si>
-  <si>
-    <t>05.11.1987</t>
-  </si>
-  <si>
-    <t>2023-04-16 10:54:20</t>
-  </si>
-  <si>
-    <t>Мачехина Ольга Савельевна</t>
-  </si>
-  <si>
-    <t>07.10.1989</t>
-  </si>
-  <si>
-    <t>2023-05-13 08:06:36</t>
-  </si>
-  <si>
-    <t>НЕ контактный</t>
-  </si>
-  <si>
-    <t>Бродовенко Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>26.05.1975</t>
-  </si>
-  <si>
-    <t>2023-05-14 18:26:21</t>
-  </si>
-  <si>
-    <t>Борисова Ирина Геннадьевна</t>
-  </si>
-  <si>
-    <t>22.03.1968</t>
-  </si>
-  <si>
-    <t>2023-05-14 17:04:49</t>
-  </si>
-  <si>
-    <t>Ермолаева Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>22.12.1987</t>
-  </si>
-  <si>
-    <t>2023-05-09 19:28:15</t>
-  </si>
-  <si>
-    <t>Малинин Дмитрий Вячеславович</t>
-  </si>
-  <si>
-    <t>25.10.1971</t>
-  </si>
-  <si>
-    <t>2023-04-27 09:38:36</t>
-  </si>
-  <si>
-    <t>Степанова Наталья Анатольевна</t>
-  </si>
-  <si>
-    <t>28.08.1977</t>
-  </si>
-  <si>
-    <t>2023-05-17 22:40:20</t>
-  </si>
-  <si>
-    <t>Емельянова Дарья Олеговна</t>
-  </si>
-  <si>
-    <t>20.03.1993</t>
-  </si>
-  <si>
-    <t>2023-05-15 20:20:34</t>
-  </si>
-  <si>
-    <t>Жмуркина Валерия Николаевна</t>
-  </si>
-  <si>
-    <t>19.05.1992</t>
-  </si>
-  <si>
-    <t>2023-04-20 17:19:24</t>
-  </si>
-  <si>
-    <t>Кузнецова Алёна Игоревна</t>
-  </si>
-  <si>
-    <t>09.11.1992</t>
-  </si>
-  <si>
-    <t>2023-05-07 06:22:39</t>
-  </si>
-  <si>
-    <t>Лапшина Юлия Анатольевна</t>
-  </si>
-  <si>
-    <t>14.10.1978</t>
-  </si>
-  <si>
-    <t>2023-04-20 12:56:46</t>
-  </si>
-  <si>
-    <t>Тихонов Александр Валерьевич</t>
-  </si>
-  <si>
-    <t>18.05.1997</t>
-  </si>
-  <si>
-    <t>2023-05-10 11:09:14</t>
-  </si>
-  <si>
-    <t>Евстафьева Елена Борисовна</t>
-  </si>
-  <si>
-    <t>09.09.1973</t>
-  </si>
-  <si>
-    <t>2023-05-01 11:22:17</t>
-  </si>
-  <si>
-    <t>Долматова Анжела Владимировна</t>
-  </si>
-  <si>
-    <t>14.05.1979</t>
-  </si>
-  <si>
-    <t>2023-05-13 19:11:06</t>
-  </si>
-  <si>
-    <t>Селюков Дмитрий Владимирович</t>
-  </si>
-  <si>
-    <t>31.08.1984</t>
-  </si>
-  <si>
-    <t>2023-05-14 12:38:04</t>
-  </si>
-  <si>
-    <t>Денисевич Игорь Александрович</t>
-  </si>
-  <si>
-    <t>03.09.1972</t>
-  </si>
-  <si>
-    <t>2023-04-16 10:18:04</t>
-  </si>
-  <si>
-    <t>Андреева Наталия Ивановна</t>
-  </si>
-  <si>
-    <t>27.04.1994</t>
-  </si>
-  <si>
-    <t>2023-05-03 12:23:43</t>
-  </si>
-  <si>
-    <t>Панкова Елена Евгеньевна</t>
-  </si>
-  <si>
-    <t>22.10.1996</t>
-  </si>
-  <si>
-    <t>2023-05-03 18:22:08</t>
-  </si>
-  <si>
-    <t>Васильева Анастасия Валерьевна</t>
-  </si>
-  <si>
-    <t>19.06.1996</t>
-  </si>
-  <si>
-    <t>2023-05-14 09:05:51</t>
-  </si>
-  <si>
-    <t>Ворохобина Надежда Николаевна</t>
-  </si>
-  <si>
-    <t>09.05.1988</t>
-  </si>
-  <si>
-    <t>2023-04-20 12:40:07</t>
-  </si>
-  <si>
-    <t>Заболотский Иван Александрович</t>
-  </si>
-  <si>
-    <t>27.09.1995</t>
-  </si>
-  <si>
-    <t>2023-04-20 13:18:12</t>
-  </si>
-  <si>
-    <t>Евстифеева Наталья Викторовна</t>
-  </si>
-  <si>
-    <t>24.02.1964</t>
-  </si>
-  <si>
-    <t>2023-05-01 09:42:03</t>
-  </si>
-  <si>
-    <t>Смирнов Александр Владимирович</t>
-  </si>
-  <si>
-    <t>23.12.1985</t>
-  </si>
-  <si>
-    <t>2023-05-18 18:07:43</t>
-  </si>
-  <si>
-    <t>Орлова Оксана Александровна</t>
-  </si>
-  <si>
-    <t>10.11.1982</t>
-  </si>
-  <si>
-    <t>2023-04-23 16:00:10</t>
-  </si>
-  <si>
-    <t>Трегубов Евгений Николаевич</t>
-  </si>
-  <si>
-    <t>19.10.1990</t>
-  </si>
-  <si>
-    <t>2023-04-23 14:46:06</t>
-  </si>
-  <si>
-    <t>Воронов Алексей Викторович</t>
-  </si>
-  <si>
-    <t>24.06.1986</t>
-  </si>
-  <si>
-    <t>2023-04-27 23:28:03</t>
-  </si>
-  <si>
-    <t>Могзоева Ирина Вадимовна</t>
-  </si>
-  <si>
-    <t>11.02.1987</t>
-  </si>
-  <si>
-    <t>2023-04-20 18:04:11</t>
-  </si>
-  <si>
-    <t>Федулова Анастасия Валерьевна</t>
-  </si>
-  <si>
-    <t>01.03.1994</t>
-  </si>
-  <si>
-    <t>2023-05-06 13:50:05</t>
-  </si>
-  <si>
-    <t>Цыплев Александр Юрьевич</t>
-  </si>
-  <si>
-    <t>20.04.1991</t>
-  </si>
-  <si>
-    <t>2023-04-21 08:48:04</t>
-  </si>
-  <si>
-    <t>Володькина Екатерина Николаевна</t>
-  </si>
-  <si>
-    <t>12.11.1991</t>
-  </si>
-  <si>
-    <t>2023-05-07 16:12:04</t>
-  </si>
-  <si>
-    <t>Платова Ольга Васильевна</t>
-  </si>
-  <si>
-    <t>13.08.1986</t>
-  </si>
-  <si>
-    <t>2023-05-10 19:40:05</t>
-  </si>
-  <si>
-    <t>Мочалова Лариса Николаевна</t>
-  </si>
-  <si>
-    <t>07.03.1968</t>
-  </si>
-  <si>
-    <t>2023-04-21 12:44:08</t>
-  </si>
-  <si>
-    <t>Ярцев Валерий Александрович</t>
-  </si>
-  <si>
-    <t>06.08.1976</t>
-  </si>
-  <si>
-    <t>2023-04-21 16:28:04</t>
-  </si>
-  <si>
-    <t>Хлыстов Никита Дмитриевич</t>
-  </si>
-  <si>
-    <t>18.12.1997</t>
-  </si>
-  <si>
-    <t>2023-04-20 17:56:07</t>
-  </si>
-  <si>
-    <t>Ястребов Александр Николаевич</t>
-  </si>
-  <si>
-    <t>19.11.1968</t>
-  </si>
-  <si>
-    <t>2023-04-20 18:12:04</t>
-  </si>
-  <si>
-    <t>Андросов Александр Валерьевич</t>
-  </si>
-  <si>
-    <t>02.10.1992</t>
-  </si>
-  <si>
-    <t>2023-04-21 16:30:09</t>
-  </si>
-  <si>
-    <t>Терещенков Евгений Александрович</t>
-  </si>
-  <si>
-    <t>24.10.1994</t>
-  </si>
-  <si>
-    <t>2023-05-06 17:30:06</t>
-  </si>
-  <si>
-    <t>Ефремов Евгений Юрьевич</t>
-  </si>
-  <si>
-    <t>15.06.1995</t>
-  </si>
-  <si>
-    <t>2023-05-05 12:48:04</t>
-  </si>
-  <si>
-    <t>Малыгин Михаил Сергеевич</t>
-  </si>
-  <si>
-    <t>28.11.1990</t>
-  </si>
-  <si>
-    <t>2023-04-20 17:30:19</t>
-  </si>
-  <si>
-    <t>Агеев Сергей Валерьевич</t>
-  </si>
-  <si>
-    <t>18.05.1983</t>
-  </si>
-  <si>
-    <t>2023-04-29 14:12:05</t>
-  </si>
-  <si>
-    <t>Руденко Ирина Сергеевна</t>
-  </si>
-  <si>
-    <t>28.08.1978</t>
-  </si>
-  <si>
-    <t>2023-05-02 16:48:08</t>
-  </si>
-  <si>
-    <t>смольянинова юлия сергеевна</t>
-  </si>
-  <si>
-    <t>07.06.1996</t>
-  </si>
-  <si>
-    <t>2023-05-01 15:40:04</t>
-  </si>
-  <si>
-    <t>Сигаева Мария Владимировна</t>
-  </si>
-  <si>
-    <t>04.04.1988</t>
-  </si>
-  <si>
-    <t>2023-05-06 23:04:04</t>
-  </si>
-  <si>
-    <t>Шустрова Екатерина Александровна</t>
-  </si>
-  <si>
-    <t>10.04.1979</t>
-  </si>
-  <si>
-    <t>2023-04-20 22:12:06</t>
-  </si>
-  <si>
-    <t>Закладная Марина Сергеевна</t>
-  </si>
-  <si>
-    <t>30.05.1996</t>
-  </si>
-  <si>
-    <t>2023-04-20 15:48:14</t>
-  </si>
-  <si>
-    <t>Марткачаков Роман Николаевич</t>
-  </si>
-  <si>
-    <t>01.09.1968</t>
-  </si>
-  <si>
-    <t>2023-04-24 12:16:05</t>
-  </si>
-  <si>
-    <t>Ярошевская Александра Михайловна</t>
-  </si>
-  <si>
-    <t>17.02.1981</t>
-  </si>
-  <si>
-    <t>2023-04-22 15:38:08</t>
-  </si>
-  <si>
-    <t>Меренюк Елена Владимировна</t>
-  </si>
-  <si>
-    <t>21.01.1981</t>
-  </si>
-  <si>
-    <t>2023-04-20 18:02:12</t>
-  </si>
-  <si>
-    <t>Ермолов Денис Валерьевич</t>
-  </si>
-  <si>
-    <t>28.03.1995</t>
-  </si>
-  <si>
-    <t>2023-04-20 14:28:04</t>
-  </si>
-  <si>
-    <t>Чернева Татьяна Юрьевна</t>
-  </si>
-  <si>
-    <t>25.01.1997</t>
-  </si>
-  <si>
-    <t>2023-04-20 17:02:09</t>
-  </si>
-  <si>
-    <t>Салюкова Регина Рустямовна</t>
-  </si>
-  <si>
-    <t>05.10.1992</t>
-  </si>
-  <si>
-    <t>2023-05-06 12:38:06</t>
-  </si>
-  <si>
-    <t>Батанов Николай Владимирович</t>
-  </si>
-  <si>
-    <t>29.07.1984</t>
-  </si>
-  <si>
-    <t>2023-04-20 17:10:04</t>
-  </si>
-  <si>
-    <t>Тамбовцев Михаил Евгеньевич</t>
-  </si>
-  <si>
-    <t>05.06.1993</t>
-  </si>
-  <si>
-    <t>2023-05-07 11:42:05</t>
-  </si>
-  <si>
-    <t>Шигаев Илья Валерьевич</t>
-  </si>
-  <si>
-    <t>02.08.1995</t>
-  </si>
-  <si>
-    <t>2023-04-21 18:08:03</t>
-  </si>
-  <si>
-    <t>Валюшкин Валерий Иванович</t>
-  </si>
-  <si>
-    <t>23.05.1988</t>
-  </si>
-  <si>
-    <t>2023-05-08 17:52:04</t>
-  </si>
-  <si>
-    <t>Земко Сергей Викторович</t>
-  </si>
-  <si>
-    <t>12.11.1961</t>
-  </si>
-  <si>
-    <t>2023-04-23 14:22:03</t>
-  </si>
-  <si>
-    <t>Суздальцев Алексей Андреевич</t>
-  </si>
-  <si>
-    <t>15.10.1996</t>
-  </si>
-  <si>
-    <t>2023-05-10 11:26:03</t>
-  </si>
-  <si>
-    <t>Жирков Александр Андреевич</t>
-  </si>
-  <si>
-    <t>29.01.1995</t>
-  </si>
-  <si>
-    <t>2023-05-10 12:34:09</t>
-  </si>
-  <si>
-    <t>Морозова Ксения Александровна</t>
-  </si>
-  <si>
-    <t>14.03.1995</t>
-  </si>
-  <si>
-    <t>2023-06-12 11:13:38</t>
-  </si>
-  <si>
-    <t>Згерский Евгений Владимирович</t>
-  </si>
-  <si>
-    <t>12.12.1985</t>
-  </si>
-  <si>
-    <t>2023-04-24 16:12:08</t>
-  </si>
-  <si>
-    <t>Осипова Юлия Алексеевна</t>
-  </si>
-  <si>
-    <t>07.01.1990</t>
-  </si>
-  <si>
-    <t>2023-04-24 17:04:11</t>
-  </si>
-  <si>
-    <t>Юдин Николай Александрович</t>
-  </si>
-  <si>
-    <t>04.06.1996</t>
-  </si>
-  <si>
-    <t>2023-04-24 20:28:05</t>
-  </si>
-  <si>
-    <t>Нифатов Роман Валерьевич</t>
-  </si>
-  <si>
-    <t>24.06.1996</t>
-  </si>
-  <si>
-    <t>2023-04-25 11:10:08</t>
-  </si>
-  <si>
-    <t>Каримов Артём Рустемович</t>
-  </si>
-  <si>
-    <t>06.10.1993</t>
-  </si>
-  <si>
-    <t>2023-04-26 11:08:08</t>
-  </si>
-  <si>
-    <t>Гранкин Денис Валерьевич</t>
-  </si>
-  <si>
-    <t>09.09.1982</t>
-  </si>
-  <si>
-    <t>2023-04-25 11:16:03</t>
-  </si>
-  <si>
-    <t>Копылова Оксана Борисовна</t>
-  </si>
-  <si>
-    <t>23.07.1991</t>
-  </si>
-  <si>
-    <t>2023-05-11 11:14:03</t>
-  </si>
-  <si>
-    <t>Саутин Дмитрий Юрьевич</t>
-  </si>
-  <si>
-    <t>22.04.1988</t>
-  </si>
-  <si>
-    <t>2023-04-29 11:30:08</t>
-  </si>
-  <si>
-    <t>Халилова Ильсеяр Рифатовна</t>
-  </si>
-  <si>
-    <t>04.10.1968</t>
-  </si>
-  <si>
-    <t>2023-05-11 16:24:07</t>
-  </si>
-  <si>
-    <t>Прошкина Евгения Алексеевна</t>
-  </si>
-  <si>
-    <t>20.12.1991</t>
-  </si>
-  <si>
-    <t>2023-05-11 17:58:07</t>
-  </si>
-  <si>
-    <t>Михайлев Дмитрий Анатольевич</t>
-  </si>
-  <si>
-    <t>20.09.1992</t>
-  </si>
-  <si>
-    <t>2023-04-26 11:32:08</t>
-  </si>
-  <si>
-    <t>Филиппов Дмитрий Игоревич</t>
-  </si>
-  <si>
-    <t>28.09.1994</t>
-  </si>
-  <si>
-    <t>2023-05-12 12:14:09</t>
-  </si>
-  <si>
-    <t>Кащеева Нина Александровна</t>
-  </si>
-  <si>
-    <t>13.06.1996</t>
-  </si>
-  <si>
-    <t>2023-05-12 17:58:08</t>
-  </si>
-  <si>
-    <t>Чернышев Артем Александрович</t>
-  </si>
-  <si>
-    <t>31.01.1988</t>
-  </si>
-  <si>
-    <t>2023-05-13 11:28:04</t>
-  </si>
-  <si>
-    <t>Каримов Ринат Файздрахманович</t>
-  </si>
-  <si>
-    <t>26.10.1964</t>
-  </si>
-  <si>
-    <t>2023-05-14 12:22:03</t>
-  </si>
-  <si>
-    <t>Кафтунова Анастасия Васильевна</t>
-  </si>
-  <si>
-    <t>20.08.1982</t>
-  </si>
-  <si>
-    <t>2023-05-14 14:56:08</t>
-  </si>
-  <si>
-    <t>Расторгуева Виктория Игоревна</t>
-  </si>
-  <si>
-    <t>13.10.1982</t>
-  </si>
-  <si>
-    <t>2023-05-14 15:22:06</t>
-  </si>
-  <si>
-    <t>Торгашова Ирина Викторовна</t>
-  </si>
-  <si>
-    <t>14.03.1978</t>
-  </si>
-  <si>
-    <t>2023-05-14 15:14:06</t>
-  </si>
-  <si>
-    <t>Фесенко Оксана Юрьевна</t>
-  </si>
-  <si>
-    <t>19.04.1990</t>
-  </si>
-  <si>
-    <t>2023-05-14 17:26:05</t>
-  </si>
-  <si>
-    <t>Красин Максим Дмитриевич</t>
-  </si>
-  <si>
-    <t>30.03.1995</t>
-  </si>
-  <si>
-    <t>2023-04-29 14:02:04</t>
-  </si>
-  <si>
-    <t>Юдина Мария Александровна</t>
-  </si>
-  <si>
-    <t>19.03.1998</t>
-  </si>
-  <si>
-    <t>2023-04-29 10:28:08</t>
-  </si>
-  <si>
-    <t>Левин Владимир Геннадьевич</t>
-  </si>
-  <si>
-    <t>15.01.1992</t>
-  </si>
-  <si>
-    <t>2023-05-15 11:52:03</t>
-  </si>
-  <si>
-    <t>Гольцева Валентина Михайловна</t>
-  </si>
-  <si>
-    <t>02.09.1983</t>
-  </si>
-  <si>
-    <t>2023-05-15 11:08:07</t>
-  </si>
-  <si>
-    <t>Воронцов Дмитрий Викторович</t>
-  </si>
-  <si>
-    <t>14.12.1996</t>
-  </si>
-  <si>
-    <t>2023-05-15 13:46:04</t>
-  </si>
-  <si>
-    <t>Швецова Наталья Михайловна</t>
-  </si>
-  <si>
-    <t>30.10.1982</t>
-  </si>
-  <si>
-    <t>2023-05-15 17:04:06</t>
-  </si>
-  <si>
-    <t>Давыдов Максим Вадимович</t>
-  </si>
-  <si>
-    <t>13.12.1997</t>
-  </si>
-  <si>
-    <t>2023-05-16 09:08:04</t>
-  </si>
-  <si>
-    <t>Молотилин Андрей Игоревич</t>
-  </si>
-  <si>
-    <t>06.11.1989</t>
-  </si>
-  <si>
-    <t>2023-04-30 10:18:07</t>
-  </si>
-  <si>
-    <t>Мясоедов Никита Андреевич</t>
-  </si>
-  <si>
-    <t>09.05.1997</t>
-  </si>
-  <si>
-    <t>2023-05-16 16:34:03</t>
-  </si>
-  <si>
-    <t>Минкина Алина Альбертовна</t>
-  </si>
-  <si>
-    <t>09.10.1994</t>
-  </si>
-  <si>
-    <t>2023-05-17 16:42:03</t>
-  </si>
-  <si>
-    <t>Ожгибесова Ирина Семеновна</t>
-  </si>
-  <si>
-    <t>06.11.1987</t>
-  </si>
-  <si>
-    <t>2023-05-01 12:56:02</t>
-  </si>
-  <si>
-    <t>Гареев Алексей Алексеевич</t>
-  </si>
-  <si>
-    <t>20.03.1980</t>
-  </si>
-  <si>
-    <t>2023-05-17 08:46:03</t>
-  </si>
-  <si>
-    <t>Иноземцева Евгения Юрьевна</t>
-  </si>
-  <si>
-    <t>10.09.1989</t>
-  </si>
-  <si>
-    <t>2023-05-17 11:00:03</t>
-  </si>
-  <si>
-    <t>Соколова Дарья Алексеева</t>
-  </si>
-  <si>
-    <t>17.08.1996</t>
-  </si>
-  <si>
-    <t>2023-05-02 09:22:03</t>
-  </si>
-  <si>
-    <t>Пушкарева Ирина Анатольевна</t>
-  </si>
-  <si>
-    <t>25.05.1998</t>
-  </si>
-  <si>
-    <t>2023-05-02 09:58:03</t>
-  </si>
-  <si>
-    <t>Кузьминых Валентина Валерьевна</t>
-  </si>
-  <si>
-    <t>2023-05-02 09:38:03</t>
-  </si>
-  <si>
-    <t>Морозов Александр Олегович</t>
-  </si>
-  <si>
-    <t>03.04.1992</t>
-  </si>
-  <si>
-    <t>2023-05-13 09:30:03</t>
-  </si>
-  <si>
-    <t>Гончаров Денис Геннадьевич</t>
-  </si>
-  <si>
-    <t>04.09.1989</t>
-  </si>
-  <si>
-    <t>2023-05-18 11:22:03</t>
-  </si>
-  <si>
-    <t>Пестерева Ольга Викторовна</t>
-  </si>
-  <si>
-    <t>26.09.1981</t>
-  </si>
-  <si>
-    <t>2023-05-18 14:56:03</t>
-  </si>
-  <si>
-    <t>Лоскутова Регина Игоревна</t>
-  </si>
-  <si>
-    <t>26.06.1996</t>
-  </si>
-  <si>
-    <t>2023-05-03 11:04:03</t>
-  </si>
-  <si>
-    <t>Агуреева Татьяна Сергеевна</t>
-  </si>
-  <si>
-    <t>30.07.1989</t>
-  </si>
-  <si>
-    <t>2023-05-03 12:54:03</t>
-  </si>
-  <si>
-    <t>Галямов Данис Ансарович</t>
-  </si>
-  <si>
-    <t>09.12.1988</t>
-  </si>
-  <si>
-    <t>2023-05-03 12:24:03</t>
-  </si>
-  <si>
-    <t>Пфайф Андрей Андреевич</t>
-  </si>
-  <si>
-    <t>26.11.1998</t>
-  </si>
-  <si>
-    <t>2023-05-04 14:48:03</t>
-  </si>
-  <si>
-    <t>Пасларь Оксана Викторовна</t>
-  </si>
-  <si>
-    <t>18.01.1987</t>
-  </si>
-  <si>
-    <t>2023-05-04 11:32:03</t>
-  </si>
-  <si>
-    <t>Антонова Валерия Сергеевна</t>
-  </si>
-  <si>
-    <t>21.07.1988</t>
-  </si>
-  <si>
-    <t>2023-05-04 15:16:03</t>
-  </si>
-  <si>
-    <t>Шапорев Евгений Александрович</t>
-  </si>
-  <si>
-    <t>10.11.1993</t>
-  </si>
-  <si>
-    <t>2023-05-05 15:22:03</t>
-  </si>
-  <si>
-    <t>Феонина Ирина Игоревна</t>
-  </si>
-  <si>
-    <t>15.08.1972</t>
-  </si>
-  <si>
-    <t>2023-05-07 09:30:03</t>
-  </si>
-  <si>
-    <t>Лаштабега Павел Александрович</t>
-  </si>
-  <si>
-    <t>17.09.1994</t>
-  </si>
-  <si>
-    <t>2023-05-06 09:44:03</t>
-  </si>
-  <si>
-    <t>Моисеенко Дмитрий Николаевич</t>
-  </si>
-  <si>
-    <t>02.12.1993</t>
-  </si>
-  <si>
-    <t>2023-05-08 09:26:03</t>
-  </si>
-  <si>
-    <t>Марчук Владислав Николаевич</t>
-  </si>
-  <si>
-    <t>05.09.1990</t>
-  </si>
-  <si>
-    <t>2023-05-11 13:36:03</t>
-  </si>
-  <si>
-    <t>Годлевская Анна Александровна</t>
-  </si>
-  <si>
-    <t>09.11.1996</t>
-  </si>
-  <si>
-    <t>2023-05-08 13:40:03</t>
-  </si>
-  <si>
-    <t>Мусликова Светлана Евгеньевна</t>
-  </si>
-  <si>
-    <t>08.09.1978</t>
-  </si>
-  <si>
-    <t>2023-05-15 20:16:02</t>
-  </si>
-  <si>
-    <t>Колчина Светлана Сергеевна</t>
-  </si>
-  <si>
-    <t>15.06.1991</t>
-  </si>
-  <si>
-    <t>2023-05-10 09:08:10</t>
-  </si>
-  <si>
-    <t>Есина Олеся Юрьевна</t>
-  </si>
-  <si>
-    <t>12.06.1992</t>
-  </si>
-  <si>
-    <t>2023-05-12 11:26:03</t>
-  </si>
-  <si>
-    <t>Папкина Оксана Александровна</t>
-  </si>
-  <si>
-    <t>30.11.1990</t>
-  </si>
-  <si>
-    <t>2023-05-12 15:50:03</t>
-  </si>
-  <si>
-    <t>Исаев Кирилл Александрович</t>
-  </si>
-  <si>
-    <t>18.09.1991</t>
-  </si>
-  <si>
-    <t>2023-05-18 16:28:03</t>
-  </si>
-  <si>
-    <t>Мамаев Владислав Евгеньевич</t>
-  </si>
-  <si>
-    <t>11.03.1985</t>
-  </si>
-  <si>
-    <t>2023-05-14 18:38:03</t>
-  </si>
-  <si>
-    <t>Егорова Ирина Михайловна</t>
-  </si>
-  <si>
-    <t>25.10.1986</t>
-  </si>
-  <si>
-    <t>2023-05-16 10:12:04</t>
-  </si>
-  <si>
-    <t>Павлова Татьяна Николаевна</t>
-  </si>
-  <si>
-    <t>11.03.1970</t>
-  </si>
-  <si>
-    <t>2023-05-16 18:28:03</t>
-  </si>
-  <si>
-    <t>Тунгусков Константин Геннадьевич</t>
-  </si>
-  <si>
-    <t>11.04.1980</t>
-  </si>
-  <si>
-    <t>2023-05-17 12:42:03</t>
-  </si>
-  <si>
-    <t>Серова Мария Валерьевна</t>
-  </si>
-  <si>
-    <t>27.08.1991</t>
-  </si>
-  <si>
-    <t>2023-05-17 20:24:04</t>
-  </si>
-  <si>
-    <t>Грибоедов Сергей Сергеевич</t>
-  </si>
-  <si>
-    <t>18.07.1999</t>
-  </si>
-  <si>
-    <t>2023-05-17 16:18:04</t>
-  </si>
-  <si>
-    <t>Климентьев Евгений Владиславович</t>
-  </si>
-  <si>
-    <t>2023-05-17 17:30:03</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1433,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1597,7 +1504,7 @@
     <row r="2" spans="1:14">
       <c r="A2"/>
       <c r="B2">
-        <v>29419</v>
+        <v>40220</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1612,22 +1519,22 @@
         <v>17</v>
       </c>
       <c r="G2">
-        <v>9395.3</v>
+        <v>5890.0</v>
       </c>
       <c r="H2">
-        <v>7282.64</v>
+        <v>1625.9</v>
       </c>
       <c r="I2">
-        <v>16677.94</v>
+        <v>7515.9</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2">
-        <v>79215613786</v>
+        <v>79137728590</v>
       </c>
       <c r="L2">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -1639,890 +1546,878 @@
     <row r="3" spans="1:14">
       <c r="A3"/>
       <c r="B3">
-        <v>30621</v>
+        <v>42363</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>5890.0</v>
+      </c>
+      <c r="H3">
+        <v>1189.8</v>
+      </c>
+      <c r="I3">
+        <v>7079.8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>79112554804</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>6898.5</v>
-      </c>
-      <c r="H3">
-        <v>3350.04</v>
-      </c>
-      <c r="I3">
-        <v>10248.54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>79129680649</v>
-      </c>
-      <c r="L3">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
+      <c r="N3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4"/>
       <c r="B4">
-        <v>33282</v>
+        <v>42340</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4">
-        <v>7390.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H4">
-        <v>2875.0</v>
+        <v>1189.8</v>
       </c>
       <c r="I4">
-        <v>10265.0</v>
+        <v>7079.8</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>79507599680</v>
+        <v>79611491812</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N4"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5"/>
       <c r="B5">
-        <v>33568</v>
+        <v>41458</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5">
-        <v>3390.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H5">
-        <v>1881.47</v>
+        <v>2935.1</v>
       </c>
       <c r="I5">
-        <v>5271.47</v>
+        <v>10825.1</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>79608732655</v>
+        <v>79518031549</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="N5"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6"/>
       <c r="B6">
-        <v>33758</v>
+        <v>39397</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6">
-        <v>3390.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H6">
-        <v>1508.9</v>
+        <v>2426.7</v>
       </c>
       <c r="I6">
-        <v>4898.9</v>
+        <v>8316.7</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>79080039386</v>
+        <v>79044980250</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N6"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7"/>
       <c r="B7">
-        <v>34245</v>
+        <v>42249</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7">
-        <v>5390.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H7">
-        <v>2272.1</v>
+        <v>1251.65</v>
       </c>
       <c r="I7">
-        <v>7662.1</v>
+        <v>7141.65</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>79787748299</v>
+        <v>79154188825</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N7"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8"/>
       <c r="B8">
-        <v>36707</v>
+        <v>41371</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8">
-        <v>7390.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H8">
-        <v>2505.4</v>
+        <v>2317.75</v>
       </c>
       <c r="I8">
-        <v>9895.4</v>
+        <v>8207.75</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
       <c r="K8">
-        <v>79276177365</v>
+        <v>79042402019</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N8"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9"/>
       <c r="B9">
-        <v>36780</v>
+        <v>40301</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9">
-        <v>4390.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H9">
-        <v>2063.5</v>
+        <v>2447.35</v>
       </c>
       <c r="I9">
-        <v>6453.5</v>
+        <v>8337.35</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9">
-        <v>79212711120</v>
+        <v>79520199550</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10"/>
       <c r="B10">
-        <v>36821</v>
+        <v>40360</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10">
-        <v>3390.0</v>
+        <v>3590.0</v>
       </c>
       <c r="H10">
-        <v>2078.5</v>
+        <v>1491.7</v>
       </c>
       <c r="I10">
-        <v>5468.5</v>
+        <v>5081.7</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
       <c r="K10">
-        <v>79036855265</v>
+        <v>79247212358</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" t="s">
-        <v>29</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="N10"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11"/>
       <c r="B11">
-        <v>37214</v>
+        <v>42129</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11">
-        <v>5390.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H11">
-        <v>2013.2</v>
+        <v>1440.15</v>
       </c>
       <c r="I11">
-        <v>7403.2</v>
+        <v>7330.15</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
       <c r="K11">
-        <v>79159008152</v>
+        <v>79082345764</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11"/>
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12"/>
       <c r="B12">
-        <v>37345</v>
+        <v>40100</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>3590.0</v>
+      </c>
+      <c r="H12">
+        <v>1498.9</v>
+      </c>
+      <c r="I12">
+        <v>5088.9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>79510878829</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
         <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>5390.0</v>
-      </c>
-      <c r="H12">
-        <v>2145.3</v>
-      </c>
-      <c r="I12">
-        <v>7535.3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12">
-        <v>79372224033</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13"/>
       <c r="B13">
-        <v>37392</v>
+        <v>39345</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>2590.0</v>
+      </c>
+      <c r="H13">
+        <v>1084.0</v>
+      </c>
+      <c r="I13">
+        <v>3674.0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>79773485200</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>5390.0</v>
-      </c>
-      <c r="H13">
-        <v>3692.6</v>
-      </c>
-      <c r="I13">
-        <v>9082.6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13">
-        <v>79193310576</v>
-      </c>
-      <c r="L13">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
-        <v>57</v>
-      </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14"/>
       <c r="B14">
-        <v>37468</v>
+        <v>41284</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>7890.0</v>
+      </c>
+      <c r="H14">
+        <v>3270.45</v>
+      </c>
+      <c r="I14">
+        <v>11160.45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>79647626949</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14">
-        <v>3390.0</v>
-      </c>
-      <c r="H14">
-        <v>1693.6</v>
-      </c>
-      <c r="I14">
-        <v>5083.6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14">
-        <v>79501903836</v>
-      </c>
-      <c r="L14">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
-        <v>60</v>
-      </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15"/>
       <c r="B15">
-        <v>37501</v>
+        <v>39221</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>5890.0</v>
+      </c>
+      <c r="H15">
+        <v>2582.85</v>
+      </c>
+      <c r="I15">
+        <v>8472.85</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>79219230456</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
         <v>61</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15">
-        <v>5390.0</v>
-      </c>
-      <c r="H15">
-        <v>3681.8</v>
-      </c>
-      <c r="I15">
-        <v>9071.8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15">
-        <v>79081702957</v>
-      </c>
-      <c r="L15">
-        <v>33</v>
-      </c>
-      <c r="M15" t="s">
-        <v>63</v>
-      </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16"/>
       <c r="B16">
-        <v>38045</v>
+        <v>40968</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>5890.0</v>
+      </c>
+      <c r="H16">
+        <v>2503.3</v>
+      </c>
+      <c r="I16">
+        <v>8393.3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>79522284211</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16">
-        <v>3390.0</v>
-      </c>
-      <c r="H16">
-        <v>1573.2</v>
-      </c>
-      <c r="I16">
-        <v>4963.2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16">
-        <v>79135539421</v>
-      </c>
-      <c r="L16">
-        <v>13</v>
-      </c>
-      <c r="M16" t="s">
-        <v>66</v>
-      </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17"/>
       <c r="B17">
-        <v>38184</v>
+        <v>41200</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>5890.0</v>
+      </c>
+      <c r="H17">
+        <v>2503.3</v>
+      </c>
+      <c r="I17">
+        <v>8393.3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>79165009736</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17">
-        <v>9890.0</v>
-      </c>
-      <c r="H17">
-        <v>5608.0</v>
-      </c>
-      <c r="I17">
-        <v>15498.0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17">
-        <v>79539350973</v>
-      </c>
-      <c r="L17">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>69</v>
-      </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18"/>
       <c r="B18">
-        <v>38495</v>
+        <v>40277</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18">
-        <v>5590.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H18">
-        <v>2389.9</v>
+        <v>2562.2</v>
       </c>
       <c r="I18">
-        <v>7979.9</v>
+        <v>8452.2</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
       </c>
       <c r="K18">
-        <v>79093176593</v>
+        <v>79059825272</v>
       </c>
       <c r="L18">
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19"/>
       <c r="B19">
-        <v>38858</v>
+        <v>37103</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>10390.0</v>
+      </c>
+      <c r="H19">
+        <v>3698.96</v>
+      </c>
+      <c r="I19">
+        <v>14088.96</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>79114235621</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19">
-        <v>5890.0</v>
-      </c>
-      <c r="H19">
-        <v>2432.7</v>
-      </c>
-      <c r="I19">
-        <v>8322.7</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19">
-        <v>79034406000</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19" t="s">
-        <v>75</v>
-      </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20"/>
       <c r="B20">
-        <v>38859</v>
+        <v>41142</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>9990.0</v>
+      </c>
+      <c r="H20">
+        <v>4250.8</v>
+      </c>
+      <c r="I20">
+        <v>14240.8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>79179003072</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>5590.0</v>
-      </c>
-      <c r="H20">
-        <v>4053.2</v>
-      </c>
-      <c r="I20">
-        <v>9643.2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20">
-        <v>79600072558</v>
-      </c>
-      <c r="L20">
-        <v>37</v>
-      </c>
-      <c r="M20" t="s">
-        <v>78</v>
-      </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21"/>
       <c r="B21">
-        <v>38945</v>
+        <v>40165</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>5890.0</v>
+      </c>
+      <c r="H21">
+        <v>2688.85</v>
+      </c>
+      <c r="I21">
+        <v>8578.85</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>79652410060</v>
+      </c>
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
         <v>79</v>
       </c>
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>3590.0</v>
-      </c>
-      <c r="H21">
-        <v>1917.3</v>
-      </c>
-      <c r="I21">
-        <v>5507.3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21">
-        <v>79997891832</v>
-      </c>
-      <c r="L21">
+      <c r="N21" t="s">
         <v>20</v>
-      </c>
-      <c r="M21" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22"/>
       <c r="B22">
-        <v>39033</v>
+        <v>41383</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>4590.0</v>
+      </c>
+      <c r="H22">
+        <v>1822.3</v>
+      </c>
+      <c r="I22">
+        <v>6412.3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>79148319961</v>
+      </c>
+      <c r="L22">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
         <v>82</v>
       </c>
-      <c r="E22" t="s">
+      <c r="N22" t="s">
         <v>83</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <v>7890.0</v>
-      </c>
-      <c r="H22">
-        <v>4213.5</v>
-      </c>
-      <c r="I22">
-        <v>12103.5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22">
-        <v>79651707887</v>
-      </c>
-      <c r="L22">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>84</v>
-      </c>
-      <c r="N22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23">
-        <v>39182</v>
+        <v>41921</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
         <v>85</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>5890.0</v>
+      </c>
+      <c r="H23">
+        <v>1690.5</v>
+      </c>
+      <c r="I23">
+        <v>7580.5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>79533759223</v>
+      </c>
+      <c r="L23">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
         <v>86</v>
       </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23">
-        <v>3590.0</v>
-      </c>
-      <c r="H23">
-        <v>1499.0</v>
-      </c>
-      <c r="I23">
-        <v>5089.0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23">
-        <v>79615025331</v>
-      </c>
-      <c r="L23">
-        <v>9</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>87</v>
-      </c>
-      <c r="N23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24"/>
       <c r="B24">
-        <v>39183</v>
+        <v>41018</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
@@ -2534,37 +2429,37 @@
         <v>17</v>
       </c>
       <c r="G24">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H24">
-        <v>3080.9</v>
+        <v>2958.82</v>
       </c>
       <c r="I24">
-        <v>8970.9</v>
+        <v>10848.82</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
       </c>
       <c r="K24">
-        <v>79135533168</v>
+        <v>79822070698</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M24" t="s">
         <v>90</v>
       </c>
       <c r="N24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25">
-        <v>39184</v>
+        <v>40984</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>91</v>
@@ -2576,37 +2471,37 @@
         <v>17</v>
       </c>
       <c r="G25">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H25">
-        <v>3080.9</v>
+        <v>3684.7</v>
       </c>
       <c r="I25">
-        <v>8970.9</v>
+        <v>11574.7</v>
       </c>
       <c r="J25" t="s">
         <v>18</v>
       </c>
       <c r="K25">
-        <v>79253091100</v>
+        <v>79099353355</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M25" t="s">
         <v>93</v>
       </c>
       <c r="N25" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26">
-        <v>39208</v>
+        <v>40110</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>94</v>
@@ -2621,34 +2516,34 @@
         <v>5890.0</v>
       </c>
       <c r="H26">
-        <v>2397.6</v>
+        <v>2750.7</v>
       </c>
       <c r="I26">
-        <v>8287.6</v>
+        <v>8640.7</v>
       </c>
       <c r="J26" t="s">
         <v>18</v>
       </c>
       <c r="K26">
-        <v>79107966784</v>
+        <v>79156418475</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M26" t="s">
         <v>96</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27">
-        <v>39215</v>
+        <v>39317</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>97</v>
@@ -2663,32 +2558,34 @@
         <v>5890.0</v>
       </c>
       <c r="H27">
-        <v>2132.2</v>
+        <v>2821.4</v>
       </c>
       <c r="I27">
-        <v>8022.2</v>
+        <v>8711.4</v>
       </c>
       <c r="J27" t="s">
         <v>18</v>
       </c>
       <c r="K27">
-        <v>79059002070</v>
+        <v>79506832160</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M27" t="s">
         <v>99</v>
       </c>
-      <c r="N27"/>
+      <c r="N27" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28"/>
       <c r="B28">
-        <v>39249</v>
+        <v>39347</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>100</v>
@@ -2700,37 +2597,37 @@
         <v>17</v>
       </c>
       <c r="G28">
-        <v>3590.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H28">
-        <v>2339.3</v>
+        <v>2821.4</v>
       </c>
       <c r="I28">
-        <v>5929.3</v>
+        <v>8711.4</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
       </c>
       <c r="K28">
-        <v>79045007609</v>
+        <v>79062714161</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M28" t="s">
         <v>102</v>
       </c>
       <c r="N28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29">
-        <v>39257</v>
+        <v>36857</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
@@ -2742,37 +2639,37 @@
         <v>17</v>
       </c>
       <c r="G29">
-        <v>5890.0</v>
+        <v>3390.0</v>
       </c>
       <c r="H29">
-        <v>3837.75</v>
+        <v>1644.3</v>
       </c>
       <c r="I29">
-        <v>9727.75</v>
+        <v>5034.3</v>
       </c>
       <c r="J29" t="s">
         <v>18</v>
       </c>
       <c r="K29">
-        <v>79956022499</v>
+        <v>79879121249</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M29" t="s">
         <v>105</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30">
-        <v>39335</v>
+        <v>38797</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>106</v>
@@ -2784,37 +2681,37 @@
         <v>17</v>
       </c>
       <c r="G30">
-        <v>5890.0</v>
+        <v>7590.0</v>
       </c>
       <c r="H30">
-        <v>3587.4</v>
+        <v>3658.5</v>
       </c>
       <c r="I30">
-        <v>9477.4</v>
+        <v>11248.5</v>
       </c>
       <c r="J30" t="s">
         <v>18</v>
       </c>
       <c r="K30">
-        <v>79165374400</v>
+        <v>79111013415</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M30" t="s">
         <v>108</v>
       </c>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31">
-        <v>39348</v>
+        <v>40923</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>109</v>
@@ -2826,37 +2723,37 @@
         <v>17</v>
       </c>
       <c r="G31">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H31">
-        <v>3080.9</v>
+        <v>3767.55</v>
       </c>
       <c r="I31">
-        <v>8970.9</v>
+        <v>11657.55</v>
       </c>
       <c r="J31" t="s">
         <v>18</v>
       </c>
       <c r="K31">
-        <v>79642622720</v>
+        <v>79054007350</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M31" t="s">
         <v>111</v>
       </c>
       <c r="N31" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32"/>
       <c r="B32">
-        <v>39408</v>
+        <v>39760</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>112</v>
@@ -2871,34 +2768,34 @@
         <v>5890.0</v>
       </c>
       <c r="H32">
-        <v>2942.25</v>
+        <v>2874.4</v>
       </c>
       <c r="I32">
-        <v>8832.25</v>
+        <v>8764.4</v>
       </c>
       <c r="J32" t="s">
         <v>18</v>
       </c>
       <c r="K32">
-        <v>79965039907</v>
+        <v>79265301607</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
         <v>114</v>
       </c>
       <c r="N32" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33"/>
       <c r="B33">
-        <v>39413</v>
+        <v>40886</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>115</v>
@@ -2910,37 +2807,37 @@
         <v>17</v>
       </c>
       <c r="G33">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H33">
-        <v>3019.05</v>
+        <v>3850.4</v>
       </c>
       <c r="I33">
-        <v>8909.05</v>
+        <v>11740.4</v>
       </c>
       <c r="J33" t="s">
         <v>18</v>
       </c>
       <c r="K33">
-        <v>79146457412</v>
+        <v>79624865276</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
         <v>117</v>
       </c>
       <c r="N33" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34"/>
       <c r="B34">
-        <v>39442</v>
+        <v>40884</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>118</v>
@@ -2952,19 +2849,19 @@
         <v>17</v>
       </c>
       <c r="G34">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H34">
-        <v>2880.4</v>
+        <v>3850.4</v>
       </c>
       <c r="I34">
-        <v>8770.4</v>
+        <v>11740.4</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
       </c>
       <c r="K34">
-        <v>79109102896</v>
+        <v>79878641883</v>
       </c>
       <c r="L34">
         <v>16</v>
@@ -2973,16 +2870,16 @@
         <v>120</v>
       </c>
       <c r="N34" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35"/>
       <c r="B35">
-        <v>39462</v>
+        <v>40864</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>121</v>
@@ -2994,37 +2891,37 @@
         <v>17</v>
       </c>
       <c r="G35">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H35">
-        <v>2691.9</v>
+        <v>3850.4</v>
       </c>
       <c r="I35">
-        <v>8581.9</v>
+        <v>11740.4</v>
       </c>
       <c r="J35" t="s">
         <v>18</v>
       </c>
       <c r="K35">
-        <v>79134567813</v>
+        <v>79041409580</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M35" t="s">
         <v>123</v>
       </c>
       <c r="N35" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36"/>
       <c r="B36">
-        <v>39480</v>
+        <v>40021</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>124</v>
@@ -3036,37 +2933,37 @@
         <v>17</v>
       </c>
       <c r="G36">
-        <v>5890.0</v>
+        <v>3590.0</v>
       </c>
       <c r="H36">
-        <v>3019.05</v>
+        <v>1752.0</v>
       </c>
       <c r="I36">
-        <v>8909.05</v>
+        <v>5342.0</v>
       </c>
       <c r="J36" t="s">
         <v>18</v>
       </c>
       <c r="K36">
-        <v>79092540594</v>
+        <v>79213343493</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M36" t="s">
         <v>126</v>
       </c>
       <c r="N36" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37"/>
       <c r="B37">
-        <v>39489</v>
+        <v>40843</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>127</v>
@@ -3078,37 +2975,37 @@
         <v>17</v>
       </c>
       <c r="G37">
-        <v>4590.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H37">
-        <v>2352.8</v>
+        <v>3933.25</v>
       </c>
       <c r="I37">
-        <v>6942.8</v>
+        <v>11823.25</v>
       </c>
       <c r="J37" t="s">
         <v>18</v>
       </c>
       <c r="K37">
-        <v>79065473383</v>
+        <v>79516138040</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M37" t="s">
         <v>129</v>
       </c>
       <c r="N37" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38"/>
       <c r="B38">
-        <v>39492</v>
+        <v>32998</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>130</v>
@@ -3120,37 +3017,37 @@
         <v>17</v>
       </c>
       <c r="G38">
-        <v>5890.0</v>
+        <v>5390.0</v>
       </c>
       <c r="H38">
-        <v>3080.9</v>
+        <v>870.49</v>
       </c>
       <c r="I38">
-        <v>8970.9</v>
+        <v>6260.49</v>
       </c>
       <c r="J38" t="s">
         <v>18</v>
       </c>
       <c r="K38">
-        <v>79531246061</v>
+        <v>79146713738</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M38" t="s">
         <v>132</v>
       </c>
       <c r="N38" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39"/>
       <c r="B39">
-        <v>39497</v>
+        <v>41754</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>133</v>
@@ -3162,37 +3059,37 @@
         <v>17</v>
       </c>
       <c r="G39">
-        <v>3590.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H39">
-        <v>1878.0</v>
+        <v>1699.35</v>
       </c>
       <c r="I39">
-        <v>5468.0</v>
+        <v>7589.35</v>
       </c>
       <c r="J39" t="s">
         <v>18</v>
       </c>
       <c r="K39">
-        <v>79518386857</v>
+        <v>79202341524</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M39" t="s">
         <v>135</v>
       </c>
       <c r="N39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40"/>
       <c r="B40">
-        <v>39515</v>
+        <v>41720</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
         <v>136</v>
@@ -3204,37 +3101,37 @@
         <v>17</v>
       </c>
       <c r="G40">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H40">
-        <v>3077.95</v>
+        <v>2276.35</v>
       </c>
       <c r="I40">
-        <v>8967.95</v>
+        <v>10166.35</v>
       </c>
       <c r="J40" t="s">
         <v>18</v>
       </c>
       <c r="K40">
-        <v>79107693707</v>
+        <v>79854154214</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M40" t="s">
         <v>138</v>
       </c>
       <c r="N40" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41"/>
       <c r="B41">
-        <v>39530</v>
+        <v>39215</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>139</v>
@@ -3246,37 +3143,37 @@
         <v>17</v>
       </c>
       <c r="G41">
-        <v>6890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H41">
-        <v>3441.75</v>
+        <v>2998.1</v>
       </c>
       <c r="I41">
-        <v>10331.75</v>
+        <v>8888.1</v>
       </c>
       <c r="J41" t="s">
         <v>18</v>
       </c>
       <c r="K41">
-        <v>79208247493</v>
+        <v>79059002070</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M41" t="s">
         <v>141</v>
       </c>
       <c r="N41" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42"/>
       <c r="B42">
-        <v>39539</v>
+        <v>41362</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
@@ -3288,19 +3185,19 @@
         <v>17</v>
       </c>
       <c r="G42">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H42">
-        <v>2061.7</v>
+        <v>3227.1</v>
       </c>
       <c r="I42">
-        <v>7951.7</v>
+        <v>11117.1</v>
       </c>
       <c r="J42" t="s">
         <v>18</v>
       </c>
       <c r="K42">
-        <v>79964496779</v>
+        <v>79122314508</v>
       </c>
       <c r="L42">
         <v>18</v>
@@ -3309,16 +3206,16 @@
         <v>144</v>
       </c>
       <c r="N42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43"/>
       <c r="B43">
-        <v>39576</v>
+        <v>40780</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>145</v>
@@ -3330,37 +3227,37 @@
         <v>17</v>
       </c>
       <c r="G43">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H43">
-        <v>3080.9</v>
+        <v>4016.1</v>
       </c>
       <c r="I43">
-        <v>8970.9</v>
+        <v>11906.1</v>
       </c>
       <c r="J43" t="s">
         <v>18</v>
       </c>
       <c r="K43">
-        <v>79033784343</v>
+        <v>79123157900</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M43" t="s">
         <v>147</v>
       </c>
       <c r="N43" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44"/>
       <c r="B44">
-        <v>39614</v>
+        <v>33282</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>148</v>
@@ -3372,37 +3269,37 @@
         <v>17</v>
       </c>
       <c r="G44">
-        <v>5890.0</v>
+        <v>7390.0</v>
       </c>
       <c r="H44">
-        <v>3469.6</v>
+        <v>443.4</v>
       </c>
       <c r="I44">
-        <v>9359.6</v>
+        <v>7833.4</v>
       </c>
       <c r="J44" t="s">
         <v>18</v>
       </c>
       <c r="K44">
-        <v>79870158657</v>
+        <v>79507599680</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M44" t="s">
         <v>150</v>
       </c>
       <c r="N44" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45"/>
       <c r="B45">
-        <v>39729</v>
+        <v>40768</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>151</v>
@@ -3414,37 +3311,37 @@
         <v>17</v>
       </c>
       <c r="G45">
-        <v>6890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H45">
-        <v>3514.2</v>
+        <v>2998.1</v>
       </c>
       <c r="I45">
-        <v>10404.2</v>
+        <v>8888.1</v>
       </c>
       <c r="J45" t="s">
         <v>18</v>
       </c>
       <c r="K45">
-        <v>79676748085</v>
+        <v>79613858849</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M45" t="s">
         <v>153</v>
       </c>
       <c r="N45" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46"/>
       <c r="B46">
-        <v>39743</v>
+        <v>37214</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
         <v>154</v>
@@ -3456,37 +3353,37 @@
         <v>17</v>
       </c>
       <c r="G46">
-        <v>5890.0</v>
+        <v>5390.0</v>
       </c>
       <c r="H46">
-        <v>3045.5</v>
+        <v>2805.6</v>
       </c>
       <c r="I46">
-        <v>8935.5</v>
+        <v>8195.6</v>
       </c>
       <c r="J46" t="s">
         <v>18</v>
       </c>
       <c r="K46">
-        <v>79304258858</v>
+        <v>79159008152</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M46" t="s">
         <v>156</v>
       </c>
       <c r="N46" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47"/>
       <c r="B47">
-        <v>39757</v>
+        <v>41595</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
         <v>157</v>
@@ -3498,37 +3395,37 @@
         <v>17</v>
       </c>
       <c r="G47">
-        <v>7890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H47">
-        <v>3183.81</v>
+        <v>2123.45</v>
       </c>
       <c r="I47">
-        <v>11073.81</v>
+        <v>8013.45</v>
       </c>
       <c r="J47" t="s">
         <v>18</v>
       </c>
       <c r="K47">
-        <v>79241915915</v>
+        <v>79111216333</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M47" t="s">
         <v>159</v>
       </c>
       <c r="N47" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48"/>
       <c r="B48">
-        <v>39761</v>
+        <v>41608</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
         <v>160</v>
@@ -3543,34 +3440,34 @@
         <v>5890.0</v>
       </c>
       <c r="H48">
-        <v>3080.9</v>
+        <v>2123.45</v>
       </c>
       <c r="I48">
-        <v>8970.9</v>
+        <v>8013.45</v>
       </c>
       <c r="J48" t="s">
         <v>18</v>
       </c>
       <c r="K48">
-        <v>79521253095</v>
+        <v>79585446041</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M48" t="s">
         <v>162</v>
       </c>
       <c r="N48" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49"/>
       <c r="B49">
-        <v>39768</v>
+        <v>40667</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
         <v>163</v>
@@ -3582,37 +3479,37 @@
         <v>17</v>
       </c>
       <c r="G49">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H49">
-        <v>3080.9</v>
+        <v>3302.07</v>
       </c>
       <c r="I49">
-        <v>8970.9</v>
+        <v>11192.07</v>
       </c>
       <c r="J49" t="s">
         <v>18</v>
       </c>
       <c r="K49">
-        <v>79057182151</v>
+        <v>79991264463</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M49" t="s">
         <v>165</v>
       </c>
       <c r="N49" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50"/>
       <c r="B50">
-        <v>39819</v>
+        <v>41598</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>166</v>
@@ -3624,37 +3521,37 @@
         <v>17</v>
       </c>
       <c r="G50">
-        <v>7890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H50">
-        <v>3795.5</v>
+        <v>2123.45</v>
       </c>
       <c r="I50">
-        <v>11685.5</v>
+        <v>8013.45</v>
       </c>
       <c r="J50" t="s">
         <v>18</v>
       </c>
       <c r="K50">
-        <v>79242143461</v>
+        <v>79515411557</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M50" t="s">
         <v>168</v>
       </c>
       <c r="N50" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51"/>
       <c r="B51">
-        <v>39822</v>
+        <v>40705</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
         <v>169</v>
@@ -3666,37 +3563,37 @@
         <v>17</v>
       </c>
       <c r="G51">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H51">
-        <v>2957.2</v>
+        <v>4106.85</v>
       </c>
       <c r="I51">
-        <v>8847.2</v>
+        <v>11996.85</v>
       </c>
       <c r="J51" t="s">
         <v>18</v>
       </c>
       <c r="K51">
-        <v>79770257907</v>
+        <v>79122117309</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M51" t="s">
         <v>171</v>
       </c>
       <c r="N51" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52"/>
       <c r="B52">
-        <v>39837</v>
+        <v>41540</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
         <v>172</v>
@@ -3708,37 +3605,37 @@
         <v>17</v>
       </c>
       <c r="G52">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H52">
-        <v>3080.9</v>
+        <v>2951.0</v>
       </c>
       <c r="I52">
-        <v>8970.9</v>
+        <v>10841.0</v>
       </c>
       <c r="J52" t="s">
         <v>18</v>
       </c>
       <c r="K52">
-        <v>79256290577</v>
+        <v>79999851183</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M52" t="s">
         <v>174</v>
       </c>
       <c r="N52" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53"/>
       <c r="B53">
-        <v>39923</v>
+        <v>40662</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>175</v>
@@ -3753,34 +3650,34 @@
         <v>5890.0</v>
       </c>
       <c r="H53">
-        <v>3080.9</v>
+        <v>3145.4</v>
       </c>
       <c r="I53">
-        <v>8970.9</v>
+        <v>9035.4</v>
       </c>
       <c r="J53" t="s">
         <v>18</v>
       </c>
       <c r="K53">
-        <v>79525791174</v>
+        <v>79005456333</v>
       </c>
       <c r="L53">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M53" t="s">
         <v>177</v>
       </c>
       <c r="N53" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54"/>
       <c r="B54">
-        <v>39985</v>
+        <v>41488</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>178</v>
@@ -3795,34 +3692,34 @@
         <v>5890.0</v>
       </c>
       <c r="H54">
-        <v>3080.9</v>
+        <v>2203.0</v>
       </c>
       <c r="I54">
-        <v>8970.9</v>
+        <v>8093.0</v>
       </c>
       <c r="J54" t="s">
         <v>18</v>
       </c>
       <c r="K54">
-        <v>79524498909</v>
+        <v>79256335506</v>
       </c>
       <c r="L54">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M54" t="s">
         <v>180</v>
       </c>
       <c r="N54" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55"/>
       <c r="B55">
-        <v>39993</v>
+        <v>37345</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>181</v>
@@ -3834,37 +3731,37 @@
         <v>17</v>
       </c>
       <c r="G55">
-        <v>7890.0</v>
+        <v>5390.0</v>
       </c>
       <c r="H55">
-        <v>3941.25</v>
+        <v>2937.7</v>
       </c>
       <c r="I55">
-        <v>11831.25</v>
+        <v>8327.7</v>
       </c>
       <c r="J55" t="s">
         <v>18</v>
       </c>
       <c r="K55">
-        <v>79003189869</v>
+        <v>79372224033</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M55" t="s">
         <v>183</v>
       </c>
       <c r="N55" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56"/>
       <c r="B56">
-        <v>40019</v>
+        <v>40634</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>184</v>
@@ -3879,34 +3776,34 @@
         <v>5890.0</v>
       </c>
       <c r="H56">
-        <v>3080.9</v>
+        <v>2585.86</v>
       </c>
       <c r="I56">
-        <v>8970.9</v>
+        <v>8475.86</v>
       </c>
       <c r="J56" t="s">
         <v>18</v>
       </c>
       <c r="K56">
-        <v>79171062127</v>
+        <v>79803002528</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M56" t="s">
         <v>186</v>
       </c>
       <c r="N56" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57"/>
       <c r="B57">
-        <v>40031</v>
+        <v>40619</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
         <v>187</v>
@@ -3918,37 +3815,37 @@
         <v>17</v>
       </c>
       <c r="G57">
-        <v>7890.0</v>
+        <v>3590.0</v>
       </c>
       <c r="H57">
-        <v>3858.4</v>
+        <v>1956.7</v>
       </c>
       <c r="I57">
-        <v>11748.4</v>
+        <v>5546.7</v>
       </c>
       <c r="J57" t="s">
         <v>18</v>
       </c>
       <c r="K57">
-        <v>79108197471</v>
+        <v>79825343501</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M57" t="s">
         <v>189</v>
       </c>
       <c r="N57" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58"/>
       <c r="B58">
-        <v>40077</v>
+        <v>40600</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
         <v>190</v>
@@ -3963,34 +3860,34 @@
         <v>5890.0</v>
       </c>
       <c r="H58">
-        <v>3019.05</v>
+        <v>3210.2</v>
       </c>
       <c r="I58">
-        <v>8909.05</v>
+        <v>9100.2</v>
       </c>
       <c r="J58" t="s">
         <v>18</v>
       </c>
       <c r="K58">
-        <v>79037746203</v>
+        <v>79173719291</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M58" t="s">
         <v>192</v>
       </c>
       <c r="N58" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59"/>
       <c r="B59">
-        <v>40099</v>
+        <v>40617</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
         <v>193</v>
@@ -4005,34 +3902,34 @@
         <v>5890.0</v>
       </c>
       <c r="H59">
-        <v>2818.55</v>
+        <v>3210.2</v>
       </c>
       <c r="I59">
-        <v>8708.55</v>
+        <v>9100.2</v>
       </c>
       <c r="J59" t="s">
         <v>18</v>
       </c>
       <c r="K59">
-        <v>79252054308</v>
+        <v>79889967737</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M59" t="s">
         <v>195</v>
       </c>
       <c r="N59" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60"/>
       <c r="B60">
-        <v>40167</v>
+        <v>41405</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>196</v>
@@ -4047,34 +3944,34 @@
         <v>5890.0</v>
       </c>
       <c r="H60">
-        <v>2907.15</v>
+        <v>2356.2</v>
       </c>
       <c r="I60">
-        <v>8797.15</v>
+        <v>8246.2</v>
       </c>
       <c r="J60" t="s">
         <v>18</v>
       </c>
       <c r="K60">
-        <v>79626891678</v>
+        <v>79092904358</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M60" t="s">
         <v>198</v>
       </c>
       <c r="N60" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61"/>
       <c r="B61">
-        <v>40174</v>
+        <v>36707</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
         <v>199</v>
@@ -4086,37 +3983,37 @@
         <v>17</v>
       </c>
       <c r="G61">
-        <v>5890.0</v>
+        <v>7390.0</v>
       </c>
       <c r="H61">
-        <v>2691.9</v>
+        <v>3384.88</v>
       </c>
       <c r="I61">
-        <v>8581.9</v>
+        <v>10774.88</v>
       </c>
       <c r="J61" t="s">
         <v>18</v>
       </c>
       <c r="K61">
-        <v>79992002851</v>
+        <v>79276177365</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M61" t="s">
         <v>201</v>
       </c>
       <c r="N61" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62"/>
       <c r="B62">
-        <v>40214</v>
+        <v>40573</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>202</v>
@@ -4128,37 +4025,37 @@
         <v>17</v>
       </c>
       <c r="G62">
-        <v>3590.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H62">
-        <v>1640.8</v>
+        <v>2662.48</v>
       </c>
       <c r="I62">
-        <v>5230.8</v>
+        <v>8552.48</v>
       </c>
       <c r="J62" t="s">
         <v>18</v>
       </c>
       <c r="K62">
-        <v>79620185978</v>
+        <v>79066273558</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M62" t="s">
         <v>204</v>
       </c>
       <c r="N62" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63"/>
       <c r="B63">
-        <v>40220</v>
+        <v>40581</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
         <v>205</v>
@@ -4170,37 +4067,37 @@
         <v>17</v>
       </c>
       <c r="G63">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H63">
-        <v>801.3</v>
+        <v>3566.48</v>
       </c>
       <c r="I63">
-        <v>6691.3</v>
+        <v>11456.48</v>
       </c>
       <c r="J63" t="s">
         <v>18</v>
       </c>
       <c r="K63">
-        <v>79137728590</v>
+        <v>79163904210</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M63" t="s">
         <v>207</v>
       </c>
       <c r="N63" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64"/>
       <c r="B64">
-        <v>40231</v>
+        <v>40569</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>208</v>
@@ -4215,34 +4112,34 @@
         <v>5890.0</v>
       </c>
       <c r="H64">
-        <v>2833.5</v>
+        <v>3298.6</v>
       </c>
       <c r="I64">
-        <v>8723.5</v>
+        <v>9188.6</v>
       </c>
       <c r="J64" t="s">
         <v>18</v>
       </c>
       <c r="K64">
-        <v>79189345503</v>
+        <v>79522327005</v>
       </c>
       <c r="L64">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M64" t="s">
         <v>210</v>
       </c>
       <c r="N64" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65"/>
       <c r="B65">
-        <v>40233</v>
+        <v>39182</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
         <v>211</v>
@@ -4254,37 +4151,37 @@
         <v>17</v>
       </c>
       <c r="G65">
-        <v>5890.0</v>
+        <v>3590.0</v>
       </c>
       <c r="H65">
-        <v>2833.5</v>
+        <v>2026.8</v>
       </c>
       <c r="I65">
-        <v>8723.5</v>
+        <v>5616.8</v>
       </c>
       <c r="J65" t="s">
         <v>18</v>
       </c>
       <c r="K65">
-        <v>79990386066</v>
+        <v>79615025331</v>
       </c>
       <c r="L65">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M65" t="s">
         <v>213</v>
       </c>
       <c r="N65" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66"/>
       <c r="B66">
-        <v>40243</v>
+        <v>38495</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>214</v>
@@ -4296,37 +4193,37 @@
         <v>17</v>
       </c>
       <c r="G66">
-        <v>3590.0</v>
+        <v>5590.0</v>
       </c>
       <c r="H66">
-        <v>1727.2</v>
+        <v>3211.7</v>
       </c>
       <c r="I66">
-        <v>5317.2</v>
+        <v>8801.7</v>
       </c>
       <c r="J66" t="s">
         <v>18</v>
       </c>
       <c r="K66">
-        <v>79877751127</v>
+        <v>79093176593</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M66" t="s">
         <v>216</v>
       </c>
       <c r="N66" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67"/>
       <c r="B67">
-        <v>40273</v>
+        <v>40475</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
         <v>217</v>
@@ -4341,34 +4238,34 @@
         <v>5890.0</v>
       </c>
       <c r="H67">
-        <v>2771.65</v>
+        <v>3363.4</v>
       </c>
       <c r="I67">
-        <v>8661.65</v>
+        <v>9253.4</v>
       </c>
       <c r="J67" t="s">
         <v>18</v>
       </c>
       <c r="K67">
-        <v>79805631922</v>
+        <v>79038780446</v>
       </c>
       <c r="L67">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M67" t="s">
         <v>219</v>
       </c>
       <c r="N67" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68"/>
       <c r="B68">
-        <v>40274</v>
+        <v>40760</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
         <v>220</v>
@@ -4383,34 +4280,34 @@
         <v>5890.0</v>
       </c>
       <c r="H68">
-        <v>2771.65</v>
+        <v>3068.9</v>
       </c>
       <c r="I68">
-        <v>8661.65</v>
+        <v>8958.9</v>
       </c>
       <c r="J68" t="s">
         <v>18</v>
       </c>
       <c r="K68">
-        <v>79870365973</v>
+        <v>79964126853</v>
       </c>
       <c r="L68">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M68" t="s">
         <v>222</v>
       </c>
       <c r="N68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69"/>
       <c r="B69">
-        <v>40276</v>
+        <v>33758</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
         <v>223</v>
@@ -4422,37 +4319,37 @@
         <v>17</v>
       </c>
       <c r="G69">
-        <v>5890.0</v>
+        <v>3390.0</v>
       </c>
       <c r="H69">
-        <v>2771.65</v>
+        <v>1330.9</v>
       </c>
       <c r="I69">
-        <v>8661.65</v>
+        <v>4720.9</v>
       </c>
       <c r="J69" t="s">
         <v>18</v>
       </c>
       <c r="K69">
-        <v>79004969416</v>
+        <v>79080039386</v>
       </c>
       <c r="L69">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M69" t="s">
         <v>225</v>
       </c>
       <c r="N69" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70"/>
       <c r="B70">
-        <v>40279</v>
+        <v>40426</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
         <v>226</v>
@@ -4464,37 +4361,37 @@
         <v>17</v>
       </c>
       <c r="G70">
-        <v>5890.0</v>
+        <v>4590.0</v>
       </c>
       <c r="H70">
-        <v>2627.1</v>
+        <v>2671.6</v>
       </c>
       <c r="I70">
-        <v>8517.1</v>
+        <v>7261.6</v>
       </c>
       <c r="J70" t="s">
         <v>18</v>
       </c>
       <c r="K70">
-        <v>79120645559</v>
+        <v>79537994800</v>
       </c>
       <c r="L70">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M70" t="s">
         <v>228</v>
       </c>
       <c r="N70" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71"/>
       <c r="B71">
-        <v>40283</v>
+        <v>41358</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
         <v>229</v>
@@ -4506,19 +4403,19 @@
         <v>17</v>
       </c>
       <c r="G71">
-        <v>5890.0</v>
+        <v>8890.0</v>
       </c>
       <c r="H71">
-        <v>2762.8</v>
+        <v>3451.8</v>
       </c>
       <c r="I71">
-        <v>8652.8</v>
+        <v>12341.8</v>
       </c>
       <c r="J71" t="s">
         <v>18</v>
       </c>
       <c r="K71">
-        <v>79158673543</v>
+        <v>79171342258</v>
       </c>
       <c r="L71">
         <v>24</v>
@@ -4527,16 +4424,16 @@
         <v>231</v>
       </c>
       <c r="N71" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72"/>
       <c r="B72">
-        <v>40305</v>
+        <v>40358</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
         <v>232</v>
@@ -4548,37 +4445,37 @@
         <v>17</v>
       </c>
       <c r="G72">
-        <v>5890.0</v>
+        <v>6890.0</v>
       </c>
       <c r="H72">
-        <v>2627.1</v>
+        <v>4010.2</v>
       </c>
       <c r="I72">
-        <v>8517.1</v>
+        <v>10900.2</v>
       </c>
       <c r="J72" t="s">
         <v>18</v>
       </c>
       <c r="K72">
-        <v>79393398170</v>
+        <v>79191355812</v>
       </c>
       <c r="L72">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M72" t="s">
         <v>234</v>
       </c>
       <c r="N72" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73"/>
       <c r="B73">
-        <v>40316</v>
+        <v>41339</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>235</v>
@@ -4593,34 +4490,34 @@
         <v>5890.0</v>
       </c>
       <c r="H73">
-        <v>2627.1</v>
+        <v>2485.8</v>
       </c>
       <c r="I73">
-        <v>8517.1</v>
+        <v>8375.8</v>
       </c>
       <c r="J73" t="s">
         <v>18</v>
       </c>
       <c r="K73">
-        <v>79626340668</v>
+        <v>79911034689</v>
       </c>
       <c r="L73">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M73" t="s">
         <v>237</v>
       </c>
       <c r="N73" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74"/>
       <c r="B74">
-        <v>40345</v>
+        <v>40305</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
         <v>238</v>
@@ -4632,37 +4529,37 @@
         <v>17</v>
       </c>
       <c r="G74">
-        <v>3590.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H74">
-        <v>1653.6</v>
+        <v>3493.0</v>
       </c>
       <c r="I74">
-        <v>5243.6</v>
+        <v>9383.0</v>
       </c>
       <c r="J74" t="s">
         <v>18</v>
       </c>
       <c r="K74">
-        <v>79867377357</v>
+        <v>79393398170</v>
       </c>
       <c r="L74">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M74" t="s">
         <v>240</v>
       </c>
       <c r="N74" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75"/>
       <c r="B75">
-        <v>40358</v>
+        <v>41119</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
         <v>241</v>
@@ -4674,37 +4571,37 @@
         <v>17</v>
       </c>
       <c r="G75">
-        <v>6890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H75">
-        <v>2997.3</v>
+        <v>3653.3</v>
       </c>
       <c r="I75">
-        <v>9887.3</v>
+        <v>11543.3</v>
       </c>
       <c r="J75" t="s">
         <v>18</v>
       </c>
       <c r="K75">
-        <v>79191355812</v>
+        <v>79321253434</v>
       </c>
       <c r="L75">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M75" t="s">
         <v>243</v>
       </c>
       <c r="N75" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76"/>
       <c r="B76">
-        <v>40426</v>
+        <v>40279</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
         <v>244</v>
@@ -4716,37 +4613,37 @@
         <v>17</v>
       </c>
       <c r="G76">
-        <v>4590.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H76">
-        <v>1996.8</v>
+        <v>3493.0</v>
       </c>
       <c r="I76">
-        <v>6586.8</v>
+        <v>9383.0</v>
       </c>
       <c r="J76" t="s">
         <v>18</v>
       </c>
       <c r="K76">
-        <v>79537994800</v>
+        <v>79120645559</v>
       </c>
       <c r="L76">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M76" t="s">
         <v>246</v>
       </c>
       <c r="N76" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77"/>
       <c r="B77">
-        <v>40475</v>
+        <v>40214</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
         <v>247</v>
@@ -4758,37 +4655,37 @@
         <v>17</v>
       </c>
       <c r="G77">
-        <v>5890.0</v>
+        <v>3590.0</v>
       </c>
       <c r="H77">
-        <v>2497.5</v>
+        <v>2168.6</v>
       </c>
       <c r="I77">
-        <v>8387.5</v>
+        <v>5758.6</v>
       </c>
       <c r="J77" t="s">
         <v>18</v>
       </c>
       <c r="K77">
-        <v>79038780446</v>
+        <v>79620185978</v>
       </c>
       <c r="L77">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M77" t="s">
         <v>249</v>
       </c>
       <c r="N77" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78"/>
       <c r="B78">
-        <v>40569</v>
+        <v>40174</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>250</v>
@@ -4803,34 +4700,34 @@
         <v>5890.0</v>
       </c>
       <c r="H78">
-        <v>2432.7</v>
+        <v>3557.8</v>
       </c>
       <c r="I78">
-        <v>8322.7</v>
+        <v>9447.8</v>
       </c>
       <c r="J78" t="s">
         <v>18</v>
       </c>
       <c r="K78">
-        <v>79522327005</v>
+        <v>79992002851</v>
       </c>
       <c r="L78">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M78" t="s">
         <v>252</v>
       </c>
       <c r="N78" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79"/>
       <c r="B79">
-        <v>40572</v>
+        <v>38045</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
         <v>253</v>
@@ -4842,37 +4739,37 @@
         <v>17</v>
       </c>
       <c r="G79">
-        <v>5890.0</v>
+        <v>3390.0</v>
       </c>
       <c r="H79">
-        <v>1961.5</v>
+        <v>2071.6</v>
       </c>
       <c r="I79">
-        <v>7851.5</v>
+        <v>5461.6</v>
       </c>
       <c r="J79" t="s">
         <v>18</v>
       </c>
       <c r="K79">
-        <v>79062714820</v>
+        <v>79135539421</v>
       </c>
       <c r="L79">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M79" t="s">
         <v>255</v>
       </c>
       <c r="N79" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80"/>
       <c r="B80">
-        <v>40573</v>
+        <v>41202</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
         <v>256</v>
@@ -4887,34 +4784,34 @@
         <v>5890.0</v>
       </c>
       <c r="H80">
-        <v>1961.5</v>
+        <v>2615.4</v>
       </c>
       <c r="I80">
-        <v>7851.5</v>
+        <v>8505.4</v>
       </c>
       <c r="J80" t="s">
         <v>18</v>
       </c>
       <c r="K80">
-        <v>79066273558</v>
+        <v>79519249762</v>
       </c>
       <c r="L80">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M80" t="s">
         <v>258</v>
       </c>
       <c r="N80" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81"/>
       <c r="B81">
-        <v>40581</v>
+        <v>40099</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
         <v>259</v>
@@ -4926,37 +4823,37 @@
         <v>17</v>
       </c>
       <c r="G81">
-        <v>7890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H81">
-        <v>2627.5</v>
+        <v>3684.45</v>
       </c>
       <c r="I81">
-        <v>10517.5</v>
+        <v>9574.45</v>
       </c>
       <c r="J81" t="s">
         <v>18</v>
       </c>
       <c r="K81">
-        <v>79163904210</v>
+        <v>79252054308</v>
       </c>
       <c r="L81">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M81" t="s">
         <v>261</v>
       </c>
       <c r="N81" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82"/>
       <c r="B82">
-        <v>40588</v>
+        <v>41120</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
         <v>262</v>
@@ -4968,37 +4865,37 @@
         <v>17</v>
       </c>
       <c r="G82">
-        <v>7890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H82">
-        <v>3258.7</v>
+        <v>2742.05</v>
       </c>
       <c r="I82">
-        <v>11148.7</v>
+        <v>8632.05</v>
       </c>
       <c r="J82" t="s">
         <v>18</v>
       </c>
       <c r="K82">
-        <v>79518759950</v>
+        <v>79263893736</v>
       </c>
       <c r="L82">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M82" t="s">
         <v>264</v>
       </c>
       <c r="N82" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83"/>
       <c r="B83">
-        <v>40595</v>
+        <v>41070</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
         <v>265</v>
@@ -5013,34 +4910,34 @@
         <v>5890.0</v>
       </c>
       <c r="H83">
-        <v>2527.2</v>
+        <v>2742.05</v>
       </c>
       <c r="I83">
-        <v>8417.2</v>
+        <v>8632.05</v>
       </c>
       <c r="J83" t="s">
         <v>18</v>
       </c>
       <c r="K83">
-        <v>79611546532</v>
+        <v>79227533004</v>
       </c>
       <c r="L83">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M83" t="s">
         <v>267</v>
       </c>
       <c r="N83" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84"/>
       <c r="B84">
-        <v>40597</v>
+        <v>39442</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
         <v>268</v>
@@ -5055,34 +4952,34 @@
         <v>5890.0</v>
       </c>
       <c r="H84">
-        <v>2527.2</v>
+        <v>3746.3</v>
       </c>
       <c r="I84">
-        <v>8417.2</v>
+        <v>9636.3</v>
       </c>
       <c r="J84" t="s">
         <v>18</v>
       </c>
       <c r="K84">
-        <v>79889484102</v>
+        <v>79109102896</v>
       </c>
       <c r="L84">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M84" t="s">
         <v>270</v>
       </c>
       <c r="N84" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85"/>
       <c r="B85">
-        <v>40600</v>
+        <v>40031</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
         <v>271</v>
@@ -5094,37 +4991,37 @@
         <v>17</v>
       </c>
       <c r="G85">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H85">
-        <v>2344.3</v>
+        <v>5018.3</v>
       </c>
       <c r="I85">
-        <v>8234.3</v>
+        <v>12908.3</v>
       </c>
       <c r="J85" t="s">
         <v>18</v>
       </c>
       <c r="K85">
-        <v>79173719291</v>
+        <v>79108197471</v>
       </c>
       <c r="L85">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M85" t="s">
         <v>273</v>
       </c>
       <c r="N85" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86"/>
       <c r="B86">
-        <v>40617</v>
+        <v>37468</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
         <v>274</v>
@@ -5136,37 +5033,37 @@
         <v>17</v>
       </c>
       <c r="G86">
-        <v>5890.0</v>
+        <v>3390.0</v>
       </c>
       <c r="H86">
-        <v>2344.3</v>
+        <v>2192.0</v>
       </c>
       <c r="I86">
-        <v>8234.3</v>
+        <v>5582.0</v>
       </c>
       <c r="J86" t="s">
         <v>18</v>
       </c>
       <c r="K86">
-        <v>79889967737</v>
+        <v>79501903836</v>
       </c>
       <c r="L86">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M86" t="s">
         <v>276</v>
       </c>
       <c r="N86" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87"/>
       <c r="B87">
-        <v>40619</v>
+        <v>39757</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
         <v>277</v>
@@ -5178,37 +5075,37 @@
         <v>17</v>
       </c>
       <c r="G87">
-        <v>3590.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H87">
-        <v>1428.9</v>
+        <v>4122.79</v>
       </c>
       <c r="I87">
-        <v>5018.9</v>
+        <v>12012.79</v>
       </c>
       <c r="J87" t="s">
         <v>18</v>
       </c>
       <c r="K87">
-        <v>79825343501</v>
+        <v>79241915915</v>
       </c>
       <c r="L87">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M87" t="s">
         <v>279</v>
       </c>
       <c r="N87" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88"/>
       <c r="B88">
-        <v>40634</v>
+        <v>39530</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
         <v>280</v>
@@ -5220,37 +5117,37 @@
         <v>17</v>
       </c>
       <c r="G88">
-        <v>5890.0</v>
+        <v>6890.0</v>
       </c>
       <c r="H88">
-        <v>1884.88</v>
+        <v>4454.65</v>
       </c>
       <c r="I88">
-        <v>7774.88</v>
+        <v>11344.65</v>
       </c>
       <c r="J88" t="s">
         <v>18</v>
       </c>
       <c r="K88">
-        <v>79803002528</v>
+        <v>79208247493</v>
       </c>
       <c r="L88">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M88" t="s">
         <v>282</v>
       </c>
       <c r="N88" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89"/>
       <c r="B89">
-        <v>40639</v>
+        <v>39993</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
         <v>283</v>
@@ -5262,37 +5159,37 @@
         <v>17</v>
       </c>
       <c r="G89">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="H89">
-        <v>2279.5</v>
+        <v>5101.15</v>
       </c>
       <c r="I89">
-        <v>8169.5</v>
+        <v>12991.15</v>
       </c>
       <c r="J89" t="s">
         <v>18</v>
       </c>
       <c r="K89">
-        <v>79087084159</v>
+        <v>79003189869</v>
       </c>
       <c r="L89">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M89" t="s">
         <v>285</v>
       </c>
       <c r="N89" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90"/>
       <c r="B90">
-        <v>40660</v>
+        <v>41008</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>286</v>
@@ -5307,34 +5204,34 @@
         <v>5890.0</v>
       </c>
       <c r="H90">
-        <v>2468.3</v>
+        <v>2865.75</v>
       </c>
       <c r="I90">
-        <v>8358.3</v>
+        <v>8755.75</v>
       </c>
       <c r="J90" t="s">
         <v>18</v>
       </c>
       <c r="K90">
-        <v>79206109333</v>
+        <v>79020992283</v>
       </c>
       <c r="L90">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M90" t="s">
         <v>288</v>
       </c>
       <c r="N90" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91"/>
       <c r="B91">
-        <v>40662</v>
+        <v>30621</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
         <v>289</v>
@@ -5346,35 +5243,37 @@
         <v>17</v>
       </c>
       <c r="G91">
-        <v>5890.0</v>
+        <v>6898.5</v>
       </c>
       <c r="H91">
-        <v>2279.5</v>
+        <v>3784.68</v>
       </c>
       <c r="I91">
-        <v>8169.5</v>
+        <v>10683.18</v>
       </c>
       <c r="J91" t="s">
         <v>18</v>
       </c>
       <c r="K91">
-        <v>79005456333</v>
+        <v>79129680649</v>
       </c>
       <c r="L91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M91" t="s">
         <v>291</v>
       </c>
-      <c r="N91"/>
+      <c r="N91" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92"/>
       <c r="B92">
-        <v>40667</v>
+        <v>40964</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
         <v>292</v>
@@ -5386,37 +5285,37 @@
         <v>17</v>
       </c>
       <c r="G92">
-        <v>7890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H92">
-        <v>2363.09</v>
+        <v>2927.6</v>
       </c>
       <c r="I92">
-        <v>10253.09</v>
+        <v>8817.6</v>
       </c>
       <c r="J92" t="s">
         <v>18</v>
       </c>
       <c r="K92">
-        <v>79991264463</v>
+        <v>79580891338</v>
       </c>
       <c r="L92">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="M92" t="s">
         <v>294</v>
       </c>
       <c r="N92" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93"/>
       <c r="B93">
-        <v>40684</v>
+        <v>39539</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
         <v>295</v>
@@ -5431,34 +5330,34 @@
         <v>5890.0</v>
       </c>
       <c r="H93">
-        <v>2397.6</v>
+        <v>2927.6</v>
       </c>
       <c r="I93">
-        <v>8287.6</v>
+        <v>8817.6</v>
       </c>
       <c r="J93" t="s">
         <v>18</v>
       </c>
       <c r="K93">
-        <v>79019541126</v>
+        <v>79964496779</v>
       </c>
       <c r="L93">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M93" t="s">
         <v>297</v>
       </c>
       <c r="N93" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94"/>
       <c r="B94">
-        <v>40699</v>
+        <v>40903</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
         <v>298</v>
@@ -5473,34 +5372,34 @@
         <v>5890.0</v>
       </c>
       <c r="H94">
-        <v>2199.95</v>
+        <v>2998.3</v>
       </c>
       <c r="I94">
-        <v>8089.95</v>
+        <v>8888.3</v>
       </c>
       <c r="J94" t="s">
         <v>18</v>
       </c>
       <c r="K94">
-        <v>79373459555</v>
+        <v>79109085465</v>
       </c>
       <c r="L94">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M94" t="s">
         <v>300</v>
       </c>
       <c r="N94" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95"/>
       <c r="B95">
-        <v>40705</v>
+        <v>40856</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
         <v>301</v>
@@ -5512,37 +5411,37 @@
         <v>17</v>
       </c>
       <c r="G95">
-        <v>7890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H95">
-        <v>2946.95</v>
+        <v>2998.3</v>
       </c>
       <c r="I95">
-        <v>10836.95</v>
+        <v>8888.3</v>
       </c>
       <c r="J95" t="s">
         <v>18</v>
       </c>
       <c r="K95">
-        <v>79122117309</v>
+        <v>79969373393</v>
       </c>
       <c r="L95">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M95" t="s">
         <v>303</v>
       </c>
       <c r="N95" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96"/>
       <c r="B96">
-        <v>40737</v>
+        <v>40828</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
         <v>304</v>
@@ -5554,37 +5453,37 @@
         <v>17</v>
       </c>
       <c r="G96">
-        <v>5890.0</v>
+        <v>4590.0</v>
       </c>
       <c r="H96">
-        <v>2297.4</v>
+        <v>2391.7</v>
       </c>
       <c r="I96">
-        <v>8187.4</v>
+        <v>6981.7</v>
       </c>
       <c r="J96" t="s">
         <v>18</v>
       </c>
       <c r="K96">
-        <v>79990014130</v>
+        <v>79274840259</v>
       </c>
       <c r="L96">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M96" t="s">
         <v>306</v>
       </c>
       <c r="N96" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97"/>
       <c r="B97">
-        <v>40744</v>
+        <v>38945</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
         <v>307</v>
@@ -5596,43 +5495,43 @@
         <v>17</v>
       </c>
       <c r="G97">
-        <v>5890.0</v>
+        <v>3590.0</v>
       </c>
       <c r="H97">
-        <v>2297.4</v>
+        <v>2445.1</v>
       </c>
       <c r="I97">
-        <v>8187.4</v>
+        <v>6035.1</v>
       </c>
       <c r="J97" t="s">
         <v>18</v>
       </c>
       <c r="K97">
-        <v>79021831527</v>
+        <v>79997891832</v>
       </c>
       <c r="L97">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M97" t="s">
         <v>309</v>
       </c>
       <c r="N97" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98"/>
       <c r="B98">
-        <v>40746</v>
+        <v>40822</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
         <v>310</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
@@ -5641,82 +5540,82 @@
         <v>5890.0</v>
       </c>
       <c r="H98">
-        <v>2297.4</v>
+        <v>2869.0</v>
       </c>
       <c r="I98">
-        <v>8187.4</v>
+        <v>8759.0</v>
       </c>
       <c r="J98" t="s">
         <v>18</v>
       </c>
       <c r="K98">
-        <v>79536082957</v>
+        <v>79038939241</v>
       </c>
       <c r="L98">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M98" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N98" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99"/>
       <c r="B99">
-        <v>40760</v>
+        <v>39729</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E99" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
       </c>
       <c r="G99">
-        <v>5890.0</v>
+        <v>6890.0</v>
       </c>
       <c r="H99">
-        <v>2203.0</v>
+        <v>4527.1</v>
       </c>
       <c r="I99">
-        <v>8093.0</v>
+        <v>11417.1</v>
       </c>
       <c r="J99" t="s">
         <v>18</v>
       </c>
       <c r="K99">
-        <v>79964126853</v>
+        <v>79676748085</v>
       </c>
       <c r="L99">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M99" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N99" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100"/>
       <c r="B100">
-        <v>40768</v>
+        <v>40744</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -5725,78 +5624,82 @@
         <v>5890.0</v>
       </c>
       <c r="H100">
-        <v>2132.2</v>
+        <v>3163.3</v>
       </c>
       <c r="I100">
-        <v>8022.2</v>
+        <v>9053.3</v>
       </c>
       <c r="J100" t="s">
         <v>18</v>
       </c>
       <c r="K100">
-        <v>79613858849</v>
+        <v>79021831527</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="M100" t="s">
-        <v>317</v>
-      </c>
-      <c r="N100"/>
+        <v>318</v>
+      </c>
+      <c r="N100" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101"/>
       <c r="B101">
-        <v>40780</v>
+        <v>40746</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E101" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101">
-        <v>7890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H101">
-        <v>2856.2</v>
+        <v>3163.3</v>
       </c>
       <c r="I101">
-        <v>10746.2</v>
+        <v>9053.3</v>
       </c>
       <c r="J101" t="s">
         <v>18</v>
       </c>
       <c r="K101">
-        <v>79123157900</v>
+        <v>79536082957</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="M101" t="s">
-        <v>320</v>
-      </c>
-      <c r="N101"/>
+        <v>321</v>
+      </c>
+      <c r="N101" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102"/>
       <c r="B102">
-        <v>40822</v>
+        <v>40737</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E102" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
@@ -5805,40 +5708,40 @@
         <v>5890.0</v>
       </c>
       <c r="H102">
-        <v>2203.1</v>
+        <v>3163.3</v>
       </c>
       <c r="I102">
-        <v>8093.1</v>
+        <v>9053.3</v>
       </c>
       <c r="J102" t="s">
         <v>18</v>
       </c>
       <c r="K102">
-        <v>79038939241</v>
+        <v>79990014130</v>
       </c>
       <c r="L102">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M102" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N102" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103"/>
       <c r="B103">
-        <v>40825</v>
+        <v>39743</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E103" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
@@ -5847,124 +5750,124 @@
         <v>5890.0</v>
       </c>
       <c r="H103">
-        <v>2203.1</v>
+        <v>3911.4</v>
       </c>
       <c r="I103">
-        <v>8093.1</v>
+        <v>9801.4</v>
       </c>
       <c r="J103" t="s">
         <v>18</v>
       </c>
       <c r="K103">
-        <v>79294086289</v>
+        <v>79304258858</v>
       </c>
       <c r="L103">
+        <v>35</v>
+      </c>
+      <c r="M103" t="s">
+        <v>327</v>
+      </c>
+      <c r="N103" t="s">
         <v>20</v>
-      </c>
-      <c r="M103" t="s">
-        <v>326</v>
-      </c>
-      <c r="N103" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104"/>
       <c r="B104">
-        <v>40828</v>
+        <v>40684</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E104" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
       </c>
       <c r="G104">
-        <v>4590.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H104">
-        <v>1716.9</v>
+        <v>3263.5</v>
       </c>
       <c r="I104">
-        <v>6306.9</v>
+        <v>9153.5</v>
       </c>
       <c r="J104" t="s">
         <v>18</v>
       </c>
       <c r="K104">
-        <v>79274840259</v>
+        <v>79019541126</v>
       </c>
       <c r="L104">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M104" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N104" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105"/>
       <c r="B105">
-        <v>40856</v>
+        <v>38184</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E105" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
       </c>
       <c r="G105">
-        <v>5890.0</v>
+        <v>9890.0</v>
       </c>
       <c r="H105">
-        <v>2132.4</v>
+        <v>7061.9</v>
       </c>
       <c r="I105">
-        <v>8022.4</v>
+        <v>16951.9</v>
       </c>
       <c r="J105" t="s">
         <v>18</v>
       </c>
       <c r="K105">
-        <v>79969373393</v>
+        <v>79539350973</v>
       </c>
       <c r="L105">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M105" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N105" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106"/>
       <c r="B106">
-        <v>40860</v>
+        <v>39208</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E106" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
@@ -5973,40 +5876,40 @@
         <v>5890.0</v>
       </c>
       <c r="H106">
-        <v>2132.4</v>
+        <v>3263.5</v>
       </c>
       <c r="I106">
-        <v>8022.4</v>
+        <v>9153.5</v>
       </c>
       <c r="J106" t="s">
         <v>18</v>
       </c>
       <c r="K106">
-        <v>79686379995</v>
+        <v>79107966784</v>
       </c>
       <c r="L106">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M106" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N106" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107"/>
       <c r="B107">
-        <v>40903</v>
+        <v>40660</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E107" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -6015,40 +5918,40 @@
         <v>5890.0</v>
       </c>
       <c r="H107">
-        <v>2132.4</v>
+        <v>3334.2</v>
       </c>
       <c r="I107">
-        <v>8022.4</v>
+        <v>9224.2</v>
       </c>
       <c r="J107" t="s">
         <v>18</v>
       </c>
       <c r="K107">
-        <v>79109085465</v>
+        <v>79206109333</v>
       </c>
       <c r="L107">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M107" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N107" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108"/>
       <c r="B108">
-        <v>40964</v>
+        <v>39614</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E108" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
@@ -6057,40 +5960,40 @@
         <v>5890.0</v>
       </c>
       <c r="H108">
-        <v>2061.7</v>
+        <v>4335.5</v>
       </c>
       <c r="I108">
-        <v>7951.7</v>
+        <v>10225.5</v>
       </c>
       <c r="J108" t="s">
         <v>18</v>
       </c>
       <c r="K108">
-        <v>79580891338</v>
+        <v>79870158657</v>
       </c>
       <c r="L108">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M108" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N108" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109"/>
       <c r="B109">
-        <v>40985</v>
+        <v>40595</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E109" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
@@ -6099,40 +6002,40 @@
         <v>5890.0</v>
       </c>
       <c r="H109">
-        <v>1938.0</v>
+        <v>3393.1</v>
       </c>
       <c r="I109">
-        <v>7828.0</v>
+        <v>9283.1</v>
       </c>
       <c r="J109" t="s">
         <v>18</v>
       </c>
       <c r="K109">
-        <v>79118665211</v>
+        <v>79611546532</v>
       </c>
       <c r="L109">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M109" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N109" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110"/>
       <c r="B110">
-        <v>41008</v>
+        <v>40283</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E110" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -6141,34 +6044,34 @@
         <v>5890.0</v>
       </c>
       <c r="H110">
-        <v>1999.85</v>
+        <v>3628.7</v>
       </c>
       <c r="I110">
-        <v>7889.85</v>
+        <v>9518.7</v>
       </c>
       <c r="J110" t="s">
         <v>18</v>
       </c>
       <c r="K110">
-        <v>79020992283</v>
+        <v>79158673543</v>
       </c>
       <c r="L110">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M110" t="s">
         <v>347</v>
       </c>
       <c r="N110" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111"/>
       <c r="B111">
-        <v>41070</v>
+        <v>40597</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
         <v>348</v>
@@ -6183,34 +6086,34 @@
         <v>5890.0</v>
       </c>
       <c r="H111">
-        <v>1876.15</v>
+        <v>3393.1</v>
       </c>
       <c r="I111">
-        <v>7766.15</v>
+        <v>9283.1</v>
       </c>
       <c r="J111" t="s">
         <v>18</v>
       </c>
       <c r="K111">
-        <v>79227533004</v>
+        <v>79889484102</v>
       </c>
       <c r="L111">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M111" t="s">
         <v>350</v>
       </c>
       <c r="N111" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112"/>
       <c r="B112">
-        <v>41119</v>
+        <v>39335</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
         <v>351</v>
@@ -6222,37 +6125,37 @@
         <v>17</v>
       </c>
       <c r="G112">
-        <v>7890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="H112">
-        <v>2493.4</v>
+        <v>4453.3</v>
       </c>
       <c r="I112">
-        <v>10383.4</v>
+        <v>10343.3</v>
       </c>
       <c r="J112" t="s">
         <v>18</v>
       </c>
       <c r="K112">
-        <v>79321253434</v>
+        <v>79165374400</v>
       </c>
       <c r="L112">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="M112" t="s">
         <v>353</v>
       </c>
       <c r="N112" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113"/>
       <c r="B113">
-        <v>41120</v>
+        <v>36821</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
         <v>354</v>
@@ -6264,528 +6167,70 @@
         <v>17</v>
       </c>
       <c r="G113">
-        <v>5890.0</v>
+        <v>3390.0</v>
       </c>
       <c r="H113">
-        <v>1876.15</v>
+        <v>2576.9</v>
       </c>
       <c r="I113">
-        <v>7766.15</v>
+        <v>5966.9</v>
       </c>
       <c r="J113" t="s">
         <v>18</v>
       </c>
       <c r="K113">
-        <v>79263893736</v>
+        <v>79036855265</v>
       </c>
       <c r="L113">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M113" t="s">
         <v>356</v>
       </c>
       <c r="N113" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114"/>
       <c r="B114">
-        <v>41138</v>
+        <v>29419</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="D114" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E114" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
       </c>
       <c r="G114">
-        <v>5890.0</v>
+        <v>9395.3</v>
       </c>
       <c r="H114">
-        <v>1814.2</v>
+        <v>7874.54</v>
       </c>
       <c r="I114">
-        <v>7704.2</v>
+        <v>17269.84</v>
       </c>
       <c r="J114" t="s">
         <v>18</v>
       </c>
       <c r="K114">
-        <v>79060544974</v>
+        <v>79215613786</v>
       </c>
       <c r="L114">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="M114" t="s">
-        <v>359</v>
-      </c>
-      <c r="N114"/>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115"/>
-      <c r="B115">
-        <v>41202</v>
-      </c>
-      <c r="C115" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" t="s">
         <v>360</v>
       </c>
-      <c r="E115" t="s">
-        <v>361</v>
-      </c>
-      <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115">
-        <v>5890.0</v>
-      </c>
-      <c r="H115">
-        <v>1749.5</v>
-      </c>
-      <c r="I115">
-        <v>7639.5</v>
-      </c>
-      <c r="J115" t="s">
-        <v>18</v>
-      </c>
-      <c r="K115">
-        <v>79519249762</v>
-      </c>
-      <c r="L115">
-        <v>13</v>
-      </c>
-      <c r="M115" t="s">
-        <v>362</v>
-      </c>
-      <c r="N115" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116"/>
-      <c r="B116">
-        <v>41339</v>
-      </c>
-      <c r="C116" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" t="s">
-        <v>363</v>
-      </c>
-      <c r="E116" t="s">
-        <v>364</v>
-      </c>
-      <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116">
-        <v>5890.0</v>
-      </c>
-      <c r="H116">
-        <v>1619.9</v>
-      </c>
-      <c r="I116">
-        <v>7509.9</v>
-      </c>
-      <c r="J116" t="s">
-        <v>18</v>
-      </c>
-      <c r="K116">
-        <v>79911034689</v>
-      </c>
-      <c r="L116">
-        <v>11</v>
-      </c>
-      <c r="M116" t="s">
-        <v>365</v>
-      </c>
-      <c r="N116" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117"/>
-      <c r="B117">
-        <v>41358</v>
-      </c>
-      <c r="C117" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117" t="s">
-        <v>366</v>
-      </c>
-      <c r="E117" t="s">
-        <v>367</v>
-      </c>
-      <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117">
-        <v>8890.0</v>
-      </c>
-      <c r="H117">
-        <v>2144.9</v>
-      </c>
-      <c r="I117">
-        <v>11034.9</v>
-      </c>
-      <c r="J117" t="s">
-        <v>18</v>
-      </c>
-      <c r="K117">
-        <v>79171342258</v>
-      </c>
-      <c r="L117">
-        <v>11</v>
-      </c>
-      <c r="M117" t="s">
-        <v>368</v>
-      </c>
-      <c r="N117" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118"/>
-      <c r="B118">
-        <v>41362</v>
-      </c>
-      <c r="C118" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118" t="s">
-        <v>369</v>
-      </c>
-      <c r="E118" t="s">
-        <v>370</v>
-      </c>
-      <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118">
-        <v>7890.0</v>
-      </c>
-      <c r="H118">
-        <v>2067.2</v>
-      </c>
-      <c r="I118">
-        <v>9957.2</v>
-      </c>
-      <c r="J118" t="s">
-        <v>18</v>
-      </c>
-      <c r="K118">
-        <v>79122314508</v>
-      </c>
-      <c r="L118">
-        <v>5</v>
-      </c>
-      <c r="M118" t="s">
-        <v>371</v>
-      </c>
-      <c r="N118"/>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="A119"/>
-      <c r="B119">
-        <v>41405</v>
-      </c>
-      <c r="C119" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" t="s">
-        <v>372</v>
-      </c>
-      <c r="E119" t="s">
-        <v>373</v>
-      </c>
-      <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119">
-        <v>5890.0</v>
-      </c>
-      <c r="H119">
-        <v>1490.3</v>
-      </c>
-      <c r="I119">
-        <v>7380.3</v>
-      </c>
-      <c r="J119" t="s">
-        <v>18</v>
-      </c>
-      <c r="K119">
-        <v>79092904358</v>
-      </c>
-      <c r="L119">
-        <v>9</v>
-      </c>
-      <c r="M119" t="s">
-        <v>374</v>
-      </c>
-      <c r="N119" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
-      <c r="A120"/>
-      <c r="B120">
-        <v>41488</v>
-      </c>
-      <c r="C120" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" t="s">
-        <v>375</v>
-      </c>
-      <c r="E120" t="s">
-        <v>376</v>
-      </c>
-      <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120">
-        <v>5890.0</v>
-      </c>
-      <c r="H120">
-        <v>1337.1</v>
-      </c>
-      <c r="I120">
-        <v>7227.1</v>
-      </c>
-      <c r="J120" t="s">
-        <v>18</v>
-      </c>
-      <c r="K120">
-        <v>79256335506</v>
-      </c>
-      <c r="L120">
-        <v>7</v>
-      </c>
-      <c r="M120" t="s">
-        <v>377</v>
-      </c>
-      <c r="N120" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121"/>
-      <c r="B121">
-        <v>41540</v>
-      </c>
-      <c r="C121" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" t="s">
-        <v>378</v>
-      </c>
-      <c r="E121" t="s">
-        <v>379</v>
-      </c>
-      <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121">
-        <v>7890.0</v>
-      </c>
-      <c r="H121">
-        <v>1791.1</v>
-      </c>
-      <c r="I121">
-        <v>9681.1</v>
-      </c>
-      <c r="J121" t="s">
-        <v>18</v>
-      </c>
-      <c r="K121">
-        <v>79999851183</v>
-      </c>
-      <c r="L121">
-        <v>7</v>
-      </c>
-      <c r="M121" t="s">
-        <v>380</v>
-      </c>
-      <c r="N121" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="A122"/>
-      <c r="B122">
-        <v>41589</v>
-      </c>
-      <c r="C122" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" t="s">
-        <v>381</v>
-      </c>
-      <c r="E122" t="s">
-        <v>382</v>
-      </c>
-      <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122">
-        <v>7890.0</v>
-      </c>
-      <c r="H122">
-        <v>1684.55</v>
-      </c>
-      <c r="I122">
-        <v>9574.55</v>
-      </c>
-      <c r="J122" t="s">
-        <v>18</v>
-      </c>
-      <c r="K122">
-        <v>79196497911</v>
-      </c>
-      <c r="L122">
-        <v>6</v>
-      </c>
-      <c r="M122" t="s">
-        <v>383</v>
-      </c>
-      <c r="N122" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123"/>
-      <c r="B123">
-        <v>41595</v>
-      </c>
-      <c r="C123" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" t="s">
-        <v>384</v>
-      </c>
-      <c r="E123" t="s">
-        <v>385</v>
-      </c>
-      <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123">
-        <v>5890.0</v>
-      </c>
-      <c r="H123">
-        <v>1257.55</v>
-      </c>
-      <c r="I123">
-        <v>7147.55</v>
-      </c>
-      <c r="J123" t="s">
-        <v>18</v>
-      </c>
-      <c r="K123">
-        <v>79111216333</v>
-      </c>
-      <c r="L123">
-        <v>6</v>
-      </c>
-      <c r="M123" t="s">
-        <v>386</v>
-      </c>
-      <c r="N123" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124"/>
-      <c r="B124">
-        <v>41598</v>
-      </c>
-      <c r="C124" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" t="s">
-        <v>387</v>
-      </c>
-      <c r="E124" t="s">
-        <v>388</v>
-      </c>
-      <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124">
-        <v>5890.0</v>
-      </c>
-      <c r="H124">
-        <v>1257.55</v>
-      </c>
-      <c r="I124">
-        <v>7147.55</v>
-      </c>
-      <c r="J124" t="s">
-        <v>18</v>
-      </c>
-      <c r="K124">
-        <v>79515411557</v>
-      </c>
-      <c r="L124">
-        <v>6</v>
-      </c>
-      <c r="M124" t="s">
-        <v>389</v>
-      </c>
-      <c r="N124" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125"/>
-      <c r="B125">
-        <v>41608</v>
-      </c>
-      <c r="C125" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" t="s">
-        <v>390</v>
-      </c>
-      <c r="E125" t="s">
-        <v>284</v>
-      </c>
-      <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125">
-        <v>5890.0</v>
-      </c>
-      <c r="H125">
-        <v>1257.55</v>
-      </c>
-      <c r="I125">
-        <v>7147.55</v>
-      </c>
-      <c r="J125" t="s">
-        <v>18</v>
-      </c>
-      <c r="K125">
-        <v>79585446041</v>
-      </c>
-      <c r="L125">
-        <v>6</v>
-      </c>
-      <c r="M125" t="s">
-        <v>391</v>
-      </c>
-      <c r="N125" t="s">
-        <v>36</v>
+      <c r="N114" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
